--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C52FE5C-EFB5-3D40-B0F0-4EAD8A654A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727F3CD-A6A9-BE4D-B95D-F9A6831F737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="401">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1535,6 +1535,105 @@
   </si>
   <si>
     <t>Canteen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearAt</t>
+  </si>
+  <si>
+    <t>appearAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Speechless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Shock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lai-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apppearAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen-Speechless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ling-Shock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ling-Pout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming-Thinking3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming-Angry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming-Thinking4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming-Provocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu-Shout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao-Shock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao-Angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,12 +1658,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1581,7 +1692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,10 +1703,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,19 +2050,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF14D6-CAD6-5C44-AFA5-A105C1944E5C}">
   <dimension ref="A1:P279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="69" style="4" customWidth="1"/>
+    <col min="2" max="2" width="69" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
@@ -2006,7 +2123,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -2021,41 +2138,41 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>317</v>
       </c>
-      <c r="G3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J3" t="s">
-        <v>371</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" t="str">
         <f>IF(E2&lt;&gt;"",E2,M2)</f>
         <v>Bridge-Connect</v>
@@ -2077,12 +2194,22 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M67" si="0">IF(E3&lt;&gt;"",E3,M3)</f>
         <v>Bridge-Connect</v>
@@ -2101,7 +2228,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="34">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M5" t="str">
@@ -2122,7 +2249,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M6" t="str">
@@ -2143,7 +2270,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="34">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M7" t="str">
@@ -2167,7 +2294,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
@@ -2175,6 +2302,9 @@
       </c>
       <c r="E8" t="s">
         <v>359</v>
+      </c>
+      <c r="F8" t="s">
+        <v>376</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -2197,11 +2327,20 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>312</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -2209,7 +2348,7 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -2224,23 +2363,26 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
@@ -2248,20 +2390,23 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="34">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P11">
         <f t="shared" si="3"/>
@@ -2269,8 +2414,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="17">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -2278,11 +2432,11 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P12">
         <f t="shared" si="3"/>
@@ -2293,23 +2447,26 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P13">
         <f t="shared" si="3"/>
@@ -2320,23 +2477,26 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P14">
         <f t="shared" si="3"/>
@@ -2347,23 +2507,26 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P15">
         <f t="shared" si="3"/>
@@ -2371,20 +2534,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P16">
         <f t="shared" si="3"/>
@@ -2392,8 +2560,17 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="34">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K17" s="5">
+        <v>500</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
@@ -2401,11 +2578,11 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P17">
         <f t="shared" si="3"/>
@@ -2416,7 +2593,7 @@
       <c r="A18" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C18" t="s">
@@ -2425,208 +2602,234 @@
       <c r="E18" t="s">
         <v>360</v>
       </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>Door-Close</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="34">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>319</v>
       </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17">
       <c r="A23" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>323</v>
       </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>325</v>
       </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="17">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>324</v>
       </c>
+      <c r="J25" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="M26" t="str">
@@ -2635,19 +2838,19 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M27" t="str">
@@ -2656,26 +2859,44 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>325</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
@@ -2683,34 +2904,40 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>325</v>
       </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
@@ -2725,19 +2952,25 @@
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
@@ -2749,16 +2982,26 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="34">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
         <v>Door-Open</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
@@ -2770,7 +3013,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="17">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E32" t="s">
@@ -2782,7 +3025,7 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
@@ -2794,7 +3037,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="17">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
       <c r="M33" t="str">
@@ -2803,7 +3046,7 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
@@ -2815,7 +3058,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="34">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E34" t="s">
@@ -2827,7 +3070,7 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
@@ -2839,7 +3082,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="17">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E35" t="s">
@@ -2851,7 +3094,7 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
@@ -2863,7 +3106,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="34">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="M36" t="str">
@@ -2872,7 +3115,7 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
@@ -2887,11 +3130,29 @@
       <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>325</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
@@ -2899,7 +3160,7 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
@@ -2914,19 +3175,25 @@
       <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>325</v>
       </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
@@ -2941,19 +3208,29 @@
       <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
+      <c r="G39" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
@@ -2965,7 +3242,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="34">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E40" t="s">
@@ -2977,7 +3254,7 @@
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
@@ -2992,11 +3269,20 @@
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>325</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K41" s="5">
+        <v>500</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
@@ -3004,7 +3290,7 @@
       </c>
       <c r="N41" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
@@ -3019,19 +3305,22 @@
       <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>325</v>
       </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
         <v>Corrider</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
@@ -3039,14 +3328,14 @@
       </c>
       <c r="P42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="17">
       <c r="A43" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C43" t="s">
@@ -3055,13 +3344,16 @@
       <c r="E43" t="s">
         <v>364</v>
       </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
         <v>Corrider</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
@@ -3069,26 +3361,29 @@
       </c>
       <c r="P43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="17">
       <c r="A44" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>326</v>
       </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
         <v>Ladder2</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
@@ -3096,26 +3391,29 @@
       </c>
       <c r="P44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="34">
       <c r="A45" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>325</v>
       </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
         <v>Ladder2</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
@@ -3123,26 +3421,31 @@
       </c>
       <c r="P45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="17">
       <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C46" t="s">
         <v>325</v>
       </c>
+      <c r="J46" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
         <v>Ladder2</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
@@ -3150,11 +3453,11 @@
       </c>
       <c r="P46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M47" t="str">
@@ -3163,7 +3466,7 @@
       </c>
       <c r="N47" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
@@ -3171,18 +3474,36 @@
       </c>
       <c r="P47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="17">
       <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
@@ -3190,7 +3511,7 @@
       </c>
       <c r="N48" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
@@ -3198,26 +3519,36 @@
       </c>
       <c r="P48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="17">
       <c r="A49" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>318</v>
       </c>
+      <c r="G49" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
       <c r="M49" t="str">
         <f t="shared" si="0"/>
         <v>Ladder2</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
@@ -3232,7 +3563,7 @@
       <c r="A50" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C50" t="s">
@@ -3247,7 +3578,7 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
@@ -3259,7 +3590,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="34">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>84</v>
       </c>
       <c r="M51" t="str">
@@ -3268,7 +3599,7 @@
       </c>
       <c r="N51" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O51">
         <f t="shared" si="2"/>
@@ -3283,11 +3614,29 @@
       <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="0"/>
@@ -3295,7 +3644,7 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O52">
         <f t="shared" si="2"/>
@@ -3310,19 +3659,29 @@
       <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>319</v>
       </c>
+      <c r="G53" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
       <c r="M53" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O53">
         <f t="shared" si="2"/>
@@ -3334,7 +3693,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="17">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M54" t="str">
@@ -3343,7 +3702,7 @@
       </c>
       <c r="N54" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O54">
         <f t="shared" si="2"/>
@@ -3355,7 +3714,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="34">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M55" t="str">
@@ -3364,7 +3723,7 @@
       </c>
       <c r="N55" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O55">
         <f t="shared" si="2"/>
@@ -3376,7 +3735,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="34">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M56" t="str">
@@ -3385,7 +3744,7 @@
       </c>
       <c r="N56" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O56">
         <f t="shared" si="2"/>
@@ -3400,11 +3759,20 @@
       <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C57" t="s">
         <v>331</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K57" s="5">
+        <v>500</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="0"/>
@@ -3412,7 +3780,7 @@
       </c>
       <c r="N57" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O57">
         <f t="shared" si="2"/>
@@ -3427,19 +3795,22 @@
       <c r="A58" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C58" t="s">
         <v>331</v>
       </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
       <c r="M58" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O58">
         <f t="shared" si="2"/>
@@ -3447,26 +3818,31 @@
       </c>
       <c r="P58">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="17">
       <c r="A59" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C59" t="s">
         <v>333</v>
       </c>
+      <c r="J59" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
       <c r="M59" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O59">
         <f t="shared" si="2"/>
@@ -3474,18 +3850,36 @@
       </c>
       <c r="P59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="17">
       <c r="A60" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="0"/>
@@ -3493,7 +3887,7 @@
       </c>
       <c r="N60" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O60">
         <f t="shared" si="2"/>
@@ -3501,26 +3895,32 @@
       </c>
       <c r="P60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="17">
       <c r="A61" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C61" t="s">
         <v>331</v>
       </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
       <c r="M61" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O61">
         <f t="shared" si="2"/>
@@ -3535,19 +3935,25 @@
       <c r="A62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C62" t="s">
         <v>333</v>
       </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
       <c r="M62" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O62">
         <f t="shared" si="2"/>
@@ -3562,19 +3968,25 @@
       <c r="A63" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
       </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
       <c r="M63" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O63">
         <f t="shared" si="2"/>
@@ -3589,19 +4001,25 @@
       <c r="A64" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C64" t="s">
         <v>333</v>
       </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
       <c r="M64" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O64">
         <f t="shared" si="2"/>
@@ -3616,19 +4034,25 @@
       <c r="A65" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C65" t="s">
         <v>331</v>
       </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
       <c r="M65" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O65">
         <f t="shared" si="2"/>
@@ -3643,19 +4067,29 @@
       <c r="A66" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
       </c>
+      <c r="G66" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
       <c r="M66" t="str">
         <f t="shared" si="0"/>
         <v>MainHall</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O66">
         <f t="shared" si="2"/>
@@ -3670,11 +4104,20 @@
       <c r="A67" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>326</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K67" s="5">
+        <v>500</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="0"/>
@@ -3682,7 +4125,7 @@
       </c>
       <c r="N67" t="str">
         <f t="shared" si="1"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O67">
         <f t="shared" si="2"/>
@@ -3694,16 +4137,19 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="34">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
       <c r="M68" t="str">
         <f t="shared" ref="M68:M131" si="4">IF(E67&lt;&gt;"",E67,M67)</f>
         <v>MainHall</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" ref="N68:N131" si="5">IF(F67&lt;&gt;"",F67,N67)</f>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O131" si="6">IF(H67&lt;&gt;"",H67,O67)</f>
@@ -3711,20 +4157,23 @@
       </c>
       <c r="P68">
         <f t="shared" ref="P68:P131" si="7">IF(K67&lt;&gt;"",K67,P67)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="34">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
       <c r="M69" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O69">
         <f t="shared" si="6"/>
@@ -3732,20 +4181,23 @@
       </c>
       <c r="P69">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="17">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
       <c r="M70" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O70">
         <f t="shared" si="6"/>
@@ -3753,26 +4205,31 @@
       </c>
       <c r="P70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="17">
       <c r="A71" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
         <v>326</v>
       </c>
+      <c r="J71" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
       <c r="M71" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O71">
         <f t="shared" si="6"/>
@@ -3780,11 +4237,11 @@
       </c>
       <c r="P71">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="17">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>105</v>
       </c>
       <c r="M72" t="str">
@@ -3793,7 +4250,7 @@
       </c>
       <c r="N72" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O72">
         <f t="shared" si="6"/>
@@ -3801,18 +4258,27 @@
       </c>
       <c r="P72">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="17">
       <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C73" t="s">
         <v>334</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K73" s="5">
+        <v>500</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="4"/>
@@ -3820,7 +4286,7 @@
       </c>
       <c r="N73" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O73">
         <f t="shared" si="6"/>
@@ -3828,20 +4294,23 @@
       </c>
       <c r="P73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="17">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
       <c r="M74" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O74">
         <f t="shared" si="6"/>
@@ -3849,18 +4318,27 @@
       </c>
       <c r="P74">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="17">
       <c r="A75" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C75" t="s">
         <v>333</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K75" s="5">
+        <v>500</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="4"/>
@@ -3868,7 +4346,7 @@
       </c>
       <c r="N75" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O75">
         <f t="shared" si="6"/>
@@ -3876,26 +4354,29 @@
       </c>
       <c r="P75">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="17">
       <c r="A76" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>333</v>
       </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
       <c r="M76" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O76">
         <f t="shared" si="6"/>
@@ -3903,26 +4384,31 @@
       </c>
       <c r="P76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="17">
       <c r="A77" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>332</v>
       </c>
+      <c r="J77" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
       <c r="M77" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O77">
         <f t="shared" si="6"/>
@@ -3930,17 +4416,26 @@
       </c>
       <c r="P77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="17">
       <c r="A78" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H78" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M78" t="str">
@@ -3949,7 +4444,7 @@
       </c>
       <c r="N78" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O78">
         <f t="shared" si="6"/>
@@ -3957,110 +4452,127 @@
       </c>
       <c r="P78">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="17">
       <c r="A79" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>21</v>
       </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="M79" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O79">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="17">
       <c r="A80" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C80" t="s">
         <v>325</v>
       </c>
+      <c r="G80" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
       <c r="M80" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O80">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P80">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="17">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
       <c r="M81" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N81" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O81">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P81">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="17">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
       <c r="M82" t="str">
         <f t="shared" si="4"/>
         <v>MainHall</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O82">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P82">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="34">
       <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C83" t="s">
@@ -4068,6 +4580,15 @@
       </c>
       <c r="E83" t="s">
         <v>363</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K83" s="5">
+        <v>500</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="M83" t="str">
         <f t="shared" si="4"/>
@@ -4075,46 +4596,51 @@
       </c>
       <c r="N83" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O83">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P83">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="34">
       <c r="A84" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C84" t="s">
         <v>325</v>
       </c>
+      <c r="J84" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
       <c r="M84" t="str">
         <f t="shared" si="4"/>
         <v>Corrider</v>
       </c>
       <c r="N84" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O84">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P84">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="17">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>118</v>
       </c>
       <c r="M85" t="str">
@@ -4123,26 +4649,44 @@
       </c>
       <c r="N85" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P85">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="17">
       <c r="A86" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>318</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="M86" t="str">
         <f t="shared" si="4"/>
@@ -4150,34 +4694,40 @@
       </c>
       <c r="N86" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O86">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P86">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
       </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
       <c r="M87" t="str">
         <f t="shared" si="4"/>
         <v>Corrider</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O87">
         <f t="shared" si="6"/>
@@ -4192,7 +4742,7 @@
       <c r="A88" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C88" t="s">
@@ -4201,13 +4751,23 @@
       <c r="E88" t="s">
         <v>373</v>
       </c>
+      <c r="G88" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
       <c r="M88" t="str">
         <f t="shared" si="4"/>
         <v>Corrider</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O88">
         <f t="shared" si="6"/>
@@ -4222,11 +4782,20 @@
       <c r="A89" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C89" t="s">
         <v>324</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K89" s="5">
+        <v>500</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="4"/>
@@ -4234,7 +4803,7 @@
       </c>
       <c r="N89" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O89">
         <f t="shared" si="6"/>
@@ -4249,19 +4818,22 @@
       <c r="A90" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C90" t="s">
         <v>326</v>
       </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
       <c r="M90" t="str">
         <f t="shared" si="4"/>
         <v>Sutra Pavilion</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O90">
         <f t="shared" si="6"/>
@@ -4269,26 +4841,29 @@
       </c>
       <c r="P90">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="17">
       <c r="A91" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>328</v>
       </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
       <c r="M91" t="str">
         <f t="shared" si="4"/>
         <v>Sutra Pavilion</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O91">
         <f t="shared" si="6"/>
@@ -4296,26 +4871,29 @@
       </c>
       <c r="P91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="17">
       <c r="A92" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C92" t="s">
         <v>317</v>
       </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
       <c r="M92" t="str">
         <f t="shared" si="4"/>
         <v>Sutra Pavilion</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O92">
         <f t="shared" si="6"/>
@@ -4323,26 +4901,29 @@
       </c>
       <c r="P92">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="17">
       <c r="A93" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C93" t="s">
         <v>328</v>
       </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
       <c r="M93" t="str">
         <f t="shared" si="4"/>
         <v>Sutra Pavilion</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O93">
         <f t="shared" si="6"/>
@@ -4350,26 +4931,31 @@
       </c>
       <c r="P93">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="17">
       <c r="A94" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C94" t="s">
         <v>318</v>
       </c>
+      <c r="J94" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
       <c r="M94" t="str">
         <f t="shared" si="4"/>
         <v>Sutra Pavilion</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O94">
         <f t="shared" si="6"/>
@@ -4377,11 +4963,11 @@
       </c>
       <c r="P94">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="34">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M95" t="str">
@@ -4390,7 +4976,7 @@
       </c>
       <c r="N95" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O95">
         <f t="shared" si="6"/>
@@ -4398,14 +4984,14 @@
       </c>
       <c r="P95">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="17">
       <c r="A96" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C96" t="s">
@@ -4417,7 +5003,7 @@
       </c>
       <c r="N96" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O96">
         <f t="shared" si="6"/>
@@ -4425,14 +5011,14 @@
       </c>
       <c r="P96">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="17">
       <c r="A97" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C97" t="s">
@@ -4447,7 +5033,7 @@
       </c>
       <c r="N97" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O97">
         <f t="shared" si="6"/>
@@ -4455,11 +5041,11 @@
       </c>
       <c r="P97">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="34">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>131</v>
       </c>
       <c r="M98" t="str">
@@ -4468,7 +5054,7 @@
       </c>
       <c r="N98" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O98">
         <f t="shared" si="6"/>
@@ -4476,18 +5062,27 @@
       </c>
       <c r="P98">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="34">
       <c r="A99" t="s">
         <v>27</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C99" t="s">
         <v>325</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K99" s="5">
+        <v>500</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="M99" t="str">
         <f t="shared" si="4"/>
@@ -4495,7 +5090,7 @@
       </c>
       <c r="N99" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O99">
         <f t="shared" si="6"/>
@@ -4503,23 +5098,26 @@
       </c>
       <c r="P99">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="17">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E100" t="s">
         <v>366</v>
       </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
       <c r="M100" t="str">
         <f t="shared" si="4"/>
         <v>Corrider</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O100">
         <f t="shared" si="6"/>
@@ -4527,26 +5125,29 @@
       </c>
       <c r="P100">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="17">
       <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C101" t="s">
         <v>328</v>
       </c>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
       <c r="M101" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside1</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O101">
         <f t="shared" si="6"/>
@@ -4554,26 +5155,31 @@
       </c>
       <c r="P101">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="34">
       <c r="A102" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C102" t="s">
         <v>327</v>
       </c>
+      <c r="J102" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
       <c r="M102" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside1</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O102">
         <f t="shared" si="6"/>
@@ -4581,11 +5187,11 @@
       </c>
       <c r="P102">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="17">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>136</v>
       </c>
       <c r="M103" t="str">
@@ -4594,7 +5200,7 @@
       </c>
       <c r="N103" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O103">
         <f t="shared" si="6"/>
@@ -4602,14 +5208,14 @@
       </c>
       <c r="P103">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="17">
       <c r="A104" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C104" t="s">
@@ -4621,7 +5227,7 @@
       </c>
       <c r="N104" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O104">
         <f t="shared" si="6"/>
@@ -4629,14 +5235,14 @@
       </c>
       <c r="P104">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="17">
       <c r="A105" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C105" t="s">
@@ -4648,7 +5254,7 @@
       </c>
       <c r="N105" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O105">
         <f t="shared" si="6"/>
@@ -4656,14 +5262,14 @@
       </c>
       <c r="P105">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="17">
       <c r="A106" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C106" t="s">
@@ -4675,7 +5281,7 @@
       </c>
       <c r="N106" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O106">
         <f t="shared" si="6"/>
@@ -4683,11 +5289,11 @@
       </c>
       <c r="P106">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="17">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>140</v>
       </c>
       <c r="M107" t="str">
@@ -4696,7 +5302,7 @@
       </c>
       <c r="N107" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O107">
         <f t="shared" si="6"/>
@@ -4704,18 +5310,36 @@
       </c>
       <c r="P107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="34">
       <c r="A108" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C108" t="s">
         <v>313</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="M108" t="str">
         <f t="shared" si="4"/>
@@ -4723,7 +5347,7 @@
       </c>
       <c r="N108" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O108">
         <f t="shared" si="6"/>
@@ -4731,26 +5355,32 @@
       </c>
       <c r="P108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="17">
       <c r="A109" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C109" t="s">
         <v>317</v>
       </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
       <c r="M109" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside1</v>
       </c>
       <c r="N109" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O109">
         <f t="shared" si="6"/>
@@ -4762,16 +5392,26 @@
       </c>
     </row>
     <row r="110" spans="1:16" ht="17">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="G110" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
       <c r="M110" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside1</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O110">
         <f t="shared" si="6"/>
@@ -4783,7 +5423,7 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="34">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E111" t="s">
@@ -4795,7 +5435,7 @@
       </c>
       <c r="N111" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O111">
         <f t="shared" si="6"/>
@@ -4810,7 +5450,7 @@
       <c r="A112" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C112" t="s">
@@ -4822,7 +5462,7 @@
       </c>
       <c r="N112" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O112">
         <f t="shared" si="6"/>
@@ -4837,11 +5477,20 @@
       <c r="A113" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C113" t="s">
         <v>320</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K113" s="5">
+        <v>500</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="M113" t="str">
         <f t="shared" si="4"/>
@@ -4849,7 +5498,7 @@
       </c>
       <c r="N113" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O113">
         <f t="shared" si="6"/>
@@ -4864,19 +5513,22 @@
       <c r="A114" t="s">
         <v>16</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C114" t="s">
         <v>312</v>
       </c>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
       <c r="M114" t="str">
         <f t="shared" si="4"/>
         <v>Room-Inside</v>
       </c>
       <c r="N114" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O114">
         <f t="shared" si="6"/>
@@ -4884,26 +5536,31 @@
       </c>
       <c r="P114">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="17">
       <c r="A115" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C115" t="s">
         <v>22</v>
       </c>
+      <c r="J115" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
       <c r="M115" t="str">
         <f t="shared" si="4"/>
         <v>Room-Inside</v>
       </c>
       <c r="N115" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O115">
         <f t="shared" si="6"/>
@@ -4911,11 +5568,11 @@
       </c>
       <c r="P115">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="17">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>149</v>
       </c>
       <c r="M116" t="str">
@@ -4924,7 +5581,7 @@
       </c>
       <c r="N116" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O116">
         <f t="shared" si="6"/>
@@ -4932,17 +5589,26 @@
       </c>
       <c r="P116">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="17">
       <c r="A117" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H117" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M117" t="str">
@@ -4951,7 +5617,7 @@
       </c>
       <c r="N117" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O117">
         <f t="shared" si="6"/>
@@ -4959,89 +5625,100 @@
       </c>
       <c r="P117">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="17">
       <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
       </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
       <c r="M118" t="str">
         <f t="shared" si="4"/>
         <v>Room-Inside</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O118">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P118">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="17">
       <c r="A119" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C119" t="s">
         <v>21</v>
       </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="M119" t="str">
         <f t="shared" si="4"/>
         <v>Room-Inside</v>
       </c>
       <c r="N119" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O119">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P119">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="17">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E120" t="s">
         <v>368</v>
       </c>
+      <c r="G120" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
       <c r="M120" t="str">
         <f t="shared" si="4"/>
         <v>Room-Inside</v>
       </c>
       <c r="N120" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O120">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P120">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="17">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>154</v>
       </c>
       <c r="M121" t="str">
@@ -5050,19 +5727,19 @@
       </c>
       <c r="N121" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O121">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P121">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="17">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M122" t="str">
@@ -5071,26 +5748,44 @@
       </c>
       <c r="N122" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O122">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P122">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="17">
       <c r="A123" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K123" s="5">
+        <v>0</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="M123" t="str">
         <f t="shared" si="4"/>
@@ -5098,34 +5793,42 @@
       </c>
       <c r="N123" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O123">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P123">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="17">
       <c r="A124" t="s">
         <v>329</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C124" t="s">
         <v>330</v>
       </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
       <c r="M124" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside2</v>
       </c>
       <c r="N124" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O124">
         <f t="shared" si="6"/>
@@ -5140,11 +5843,23 @@
       <c r="A125" t="s">
         <v>17</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C125" t="s">
         <v>321</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K125" s="5">
+        <v>0</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="M125" t="str">
         <f t="shared" si="4"/>
@@ -5152,7 +5867,7 @@
       </c>
       <c r="N125" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O125">
         <f t="shared" si="6"/>
@@ -5167,19 +5882,25 @@
       <c r="A126" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
       <c r="M126" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside2</v>
       </c>
       <c r="N126" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O126">
         <f t="shared" si="6"/>
@@ -5194,19 +5915,25 @@
       <c r="A127" t="s">
         <v>16</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
       </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
       <c r="M127" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside2</v>
       </c>
       <c r="N127" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O127">
         <f t="shared" si="6"/>
@@ -5218,19 +5945,29 @@
       </c>
     </row>
     <row r="128" spans="1:16" ht="17">
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E128" t="s">
         <v>363</v>
       </c>
+      <c r="G128" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
       <c r="M128" t="str">
         <f t="shared" si="4"/>
         <v>Room-Outside2</v>
       </c>
       <c r="N128" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O128">
         <f t="shared" si="6"/>
@@ -5242,7 +5979,7 @@
       </c>
     </row>
     <row r="129" spans="1:16" ht="34">
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>162</v>
       </c>
       <c r="M129" t="str">
@@ -5251,7 +5988,7 @@
       </c>
       <c r="N129" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O129">
         <f t="shared" si="6"/>
@@ -5263,7 +6000,7 @@
       </c>
     </row>
     <row r="130" spans="1:16" ht="17">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E130" t="s">
@@ -5275,7 +6012,7 @@
       </c>
       <c r="N130" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O130">
         <f t="shared" si="6"/>
@@ -5287,7 +6024,7 @@
       </c>
     </row>
     <row r="131" spans="1:16" ht="17">
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>164</v>
       </c>
       <c r="M131" t="str">
@@ -5296,7 +6033,7 @@
       </c>
       <c r="N131" t="str">
         <f t="shared" si="5"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O131">
         <f t="shared" si="6"/>
@@ -5311,10 +6048,19 @@
       <c r="A132" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M132" t="str">
@@ -5323,7 +6069,7 @@
       </c>
       <c r="N132" t="str">
         <f t="shared" ref="N132:N195" si="9">IF(F131&lt;&gt;"",F131,N131)</f>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O132">
         <f t="shared" ref="O132:O195" si="10">IF(H131&lt;&gt;"",H131,O131)</f>
@@ -5335,8 +6081,20 @@
       </c>
     </row>
     <row r="133" spans="1:16" ht="17">
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>166</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K133" s="5">
+        <v>0</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="M133" t="str">
         <f t="shared" si="8"/>
@@ -5344,7 +6102,7 @@
       </c>
       <c r="N133" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O133">
         <f t="shared" si="10"/>
@@ -5359,19 +6117,25 @@
       <c r="A134" t="s">
         <v>17</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C134" t="s">
         <v>318</v>
       </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
       <c r="M134" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N134" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O134">
         <f t="shared" si="10"/>
@@ -5383,16 +6147,26 @@
       </c>
     </row>
     <row r="135" spans="1:16" ht="17">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="G135" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
       <c r="M135" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N135" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O135">
         <f t="shared" si="10"/>
@@ -5404,7 +6178,7 @@
       </c>
     </row>
     <row r="136" spans="1:16" ht="17">
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>168</v>
       </c>
       <c r="M136" t="str">
@@ -5413,7 +6187,7 @@
       </c>
       <c r="N136" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O136">
         <f t="shared" si="10"/>
@@ -5425,7 +6199,7 @@
       </c>
     </row>
     <row r="137" spans="1:16" ht="17">
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>169</v>
       </c>
       <c r="M137" t="str">
@@ -5434,7 +6208,7 @@
       </c>
       <c r="N137" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O137">
         <f t="shared" si="10"/>
@@ -5446,7 +6220,7 @@
       </c>
     </row>
     <row r="138" spans="1:16" ht="17">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>170</v>
       </c>
       <c r="M138" t="str">
@@ -5455,7 +6229,7 @@
       </c>
       <c r="N138" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O138">
         <f t="shared" si="10"/>
@@ -5470,11 +6244,20 @@
       <c r="A139" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C139" t="s">
         <v>25</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M139" t="str">
         <f t="shared" si="8"/>
@@ -5482,7 +6265,7 @@
       </c>
       <c r="N139" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O139">
         <f t="shared" si="10"/>
@@ -5497,11 +6280,23 @@
       <c r="A140" t="s">
         <v>374</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C140" t="s">
         <v>337</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K140" s="5">
+        <v>0</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="M140" t="str">
         <f t="shared" si="8"/>
@@ -5509,7 +6304,7 @@
       </c>
       <c r="N140" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O140">
         <f t="shared" si="10"/>
@@ -5524,19 +6319,25 @@
       <c r="A141" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
       </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
       <c r="M141" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N141" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O141">
         <f t="shared" si="10"/>
@@ -5551,19 +6352,25 @@
       <c r="A142" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C142" t="s">
         <v>311</v>
       </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
       <c r="M142" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N142" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O142">
         <f t="shared" si="10"/>
@@ -5578,19 +6385,25 @@
       <c r="A143" t="s">
         <v>374</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C143" t="s">
         <v>338</v>
       </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
       <c r="M143" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N143" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O143">
         <f t="shared" si="10"/>
@@ -5605,19 +6418,29 @@
       <c r="A144" t="s">
         <v>374</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C144" t="s">
         <v>339</v>
       </c>
+      <c r="G144" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
       <c r="M144" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N144" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O144">
         <f t="shared" si="10"/>
@@ -5629,7 +6452,7 @@
       </c>
     </row>
     <row r="145" spans="1:16" ht="17">
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>177</v>
       </c>
       <c r="M145" t="str">
@@ -5638,7 +6461,7 @@
       </c>
       <c r="N145" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O145">
         <f t="shared" si="10"/>
@@ -5653,11 +6476,20 @@
       <c r="A146" t="s">
         <v>29</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C146" t="s">
         <v>338</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K146" s="5">
+        <v>500</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="M146" t="str">
         <f t="shared" si="8"/>
@@ -5665,7 +6497,7 @@
       </c>
       <c r="N146" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O146">
         <f t="shared" si="10"/>
@@ -5680,19 +6512,22 @@
       <c r="A147" t="s">
         <v>29</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C147" t="s">
         <v>338</v>
       </c>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
       <c r="M147" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N147" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O147">
         <f t="shared" si="10"/>
@@ -5700,26 +6535,29 @@
       </c>
       <c r="P147">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="17">
       <c r="A148" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C148" t="s">
         <v>21</v>
       </c>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
       <c r="M148" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N148" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O148">
         <f t="shared" si="10"/>
@@ -5727,26 +6565,29 @@
       </c>
       <c r="P148">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="34">
       <c r="A149" t="s">
         <v>16</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
       </c>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
       <c r="M149" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N149" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O149">
         <f t="shared" si="10"/>
@@ -5754,26 +6595,29 @@
       </c>
       <c r="P149">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="17">
       <c r="A150" t="s">
         <v>16</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
       </c>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
       <c r="M150" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N150" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O150">
         <f t="shared" si="10"/>
@@ -5781,18 +6625,27 @@
       </c>
       <c r="P150">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="17">
       <c r="A151" t="s">
         <v>29</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C151" t="s">
         <v>337</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K151" s="5">
+        <v>500</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="M151" t="str">
         <f t="shared" si="8"/>
@@ -5800,7 +6653,7 @@
       </c>
       <c r="N151" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O151">
         <f t="shared" si="10"/>
@@ -5808,26 +6661,29 @@
       </c>
       <c r="P151">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="17">
       <c r="A152" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C152" t="s">
         <v>318</v>
       </c>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
       <c r="M152" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N152" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O152">
         <f t="shared" si="10"/>
@@ -5835,26 +6691,29 @@
       </c>
       <c r="P152">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="17">
       <c r="A153" t="s">
         <v>29</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C153" t="s">
         <v>339</v>
       </c>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
       <c r="M153" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N153" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O153">
         <f t="shared" si="10"/>
@@ -5862,26 +6721,29 @@
       </c>
       <c r="P153">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="17">
       <c r="A154" t="s">
         <v>29</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C154" t="s">
         <v>339</v>
       </c>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
       <c r="M154" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N154" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O154">
         <f t="shared" si="10"/>
@@ -5889,26 +6751,31 @@
       </c>
       <c r="P154">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="34">
       <c r="A155" t="s">
         <v>29</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C155" t="s">
         <v>339</v>
       </c>
+      <c r="J155" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
       <c r="M155" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N155" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O155">
         <f t="shared" si="10"/>
@@ -5916,18 +6783,27 @@
       </c>
       <c r="P155">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="34">
       <c r="A156" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C156" t="s">
         <v>313</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="M156" t="str">
         <f t="shared" si="8"/>
@@ -5935,7 +6811,7 @@
       </c>
       <c r="N156" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O156">
         <f t="shared" si="10"/>
@@ -5943,18 +6819,30 @@
       </c>
       <c r="P156">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="17">
       <c r="A157" t="s">
         <v>29</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C157" t="s">
         <v>339</v>
+      </c>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K157" s="5">
+        <v>0</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="M157" t="str">
         <f t="shared" si="8"/>
@@ -5962,7 +6850,7 @@
       </c>
       <c r="N157" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O157">
         <f t="shared" si="10"/>
@@ -5970,26 +6858,32 @@
       </c>
       <c r="P157">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="17">
       <c r="A158" t="s">
         <v>29</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C158" t="s">
         <v>341</v>
       </c>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
       <c r="M158" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N158" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O158">
         <f t="shared" si="10"/>
@@ -6004,19 +6898,25 @@
       <c r="A159" t="s">
         <v>29</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C159" t="s">
         <v>341</v>
       </c>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
       <c r="M159" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N159" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O159">
         <f t="shared" si="10"/>
@@ -6031,19 +6931,29 @@
       <c r="A160" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C160" t="s">
         <v>342</v>
       </c>
+      <c r="G160" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
       <c r="M160" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N160" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O160">
         <f t="shared" si="10"/>
@@ -6055,7 +6965,7 @@
       </c>
     </row>
     <row r="161" spans="1:16" ht="34">
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M161" t="str">
@@ -6064,7 +6974,7 @@
       </c>
       <c r="N161" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O161">
         <f t="shared" si="10"/>
@@ -6079,11 +6989,20 @@
       <c r="A162" t="s">
         <v>16</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C162" t="s">
         <v>314</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H162" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M162" t="str">
         <f t="shared" si="8"/>
@@ -6091,7 +7010,7 @@
       </c>
       <c r="N162" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O162">
         <f t="shared" si="10"/>
@@ -6106,23 +7025,26 @@
       <c r="A163" t="s">
         <v>16</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C163" t="s">
         <v>314</v>
       </c>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
       <c r="M163" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N163" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O163">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P163">
         <f t="shared" si="11"/>
@@ -6133,23 +7055,26 @@
       <c r="A164" t="s">
         <v>16</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C164" t="s">
         <v>21</v>
       </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
       <c r="M164" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N164" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O164">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P164">
         <f t="shared" si="11"/>
@@ -6160,20 +7085,25 @@
       <c r="A165" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="G165" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
       <c r="M165" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N165" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O165">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P165">
         <f t="shared" si="11"/>
@@ -6184,11 +7114,20 @@
       <c r="A166" t="s">
         <v>29</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C166" t="s">
         <v>341</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K166" s="5">
+        <v>500</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="M166" t="str">
         <f t="shared" si="8"/>
@@ -6196,11 +7135,11 @@
       </c>
       <c r="N166" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O166">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P166">
         <f t="shared" si="11"/>
@@ -6211,58 +7150,66 @@
       <c r="A167" t="s">
         <v>29</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C167" t="s">
         <v>337</v>
       </c>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
       <c r="M167" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N167" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O167">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P167">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="17">
       <c r="A168" t="s">
         <v>16</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C168" t="s">
         <v>21</v>
       </c>
+      <c r="J168" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
       <c r="M168" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N168" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O168">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P168">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="34">
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>202</v>
       </c>
       <c r="M169" t="str">
@@ -6271,25 +7218,34 @@
       </c>
       <c r="N169" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O169">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P169">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="17">
       <c r="A170" t="s">
         <v>322</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C170" t="s">
+        <v>344</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K170" s="5">
+        <v>500</v>
+      </c>
+      <c r="L170" s="5" t="s">
         <v>344</v>
       </c>
       <c r="M170" t="str">
@@ -6298,154 +7254,171 @@
       </c>
       <c r="N170" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O170">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P170">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="17">
       <c r="A171" t="s">
         <v>29</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C171" t="s">
         <v>338</v>
       </c>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
       <c r="M171" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N171" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O171">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P171">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="17">
       <c r="A172" t="s">
         <v>29</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C172" t="s">
         <v>338</v>
       </c>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
       <c r="M172" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N172" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O172">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P172">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="34">
       <c r="A173" t="s">
         <v>30</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C173" t="s">
         <v>345</v>
       </c>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
       <c r="M173" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N173" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O173">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P173">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="17">
       <c r="A174" t="s">
         <v>16</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
       </c>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
       <c r="M174" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N174" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O174">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P174">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="34">
       <c r="A175" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C175" t="s">
         <v>338</v>
       </c>
+      <c r="J175" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
       <c r="M175" t="str">
         <f t="shared" si="8"/>
         <v>Garden</v>
       </c>
       <c r="N175" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O175">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P175">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="17">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>209</v>
       </c>
       <c r="M176" t="str">
@@ -6454,19 +7427,19 @@
       </c>
       <c r="N176" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O176">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P176">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="34">
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>210</v>
       </c>
       <c r="M177" t="str">
@@ -6475,19 +7448,19 @@
       </c>
       <c r="N177" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O177">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P177">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="17">
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E178" t="s">
@@ -6499,19 +7472,19 @@
       </c>
       <c r="N178" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O178">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P178">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="17">
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>212</v>
       </c>
       <c r="M179" t="str">
@@ -6520,19 +7493,19 @@
       </c>
       <c r="N179" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O179">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P179">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="34">
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>213</v>
       </c>
       <c r="M180" t="str">
@@ -6541,19 +7514,19 @@
       </c>
       <c r="N180" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O180">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P180">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="17">
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>214</v>
       </c>
       <c r="M181" t="str">
@@ -6562,20 +7535,29 @@
       </c>
       <c r="N181" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O181">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P181">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="17">
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>215</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K182" s="5">
+        <v>500</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="M182" t="str">
         <f t="shared" si="8"/>
@@ -6583,89 +7565,118 @@
       </c>
       <c r="N182" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O182">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P182">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="17">
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>216</v>
       </c>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
       <c r="M183" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N183" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O183">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P183">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="34">
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
       <c r="M184" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N184" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O184">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P184">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="17">
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>218</v>
       </c>
+      <c r="J185" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
       <c r="M185" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N185" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O185">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P185">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="17">
       <c r="A186" t="s">
         <v>16</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C186" t="s">
         <v>21</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H186" s="4">
+        <v>0</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K186" s="5">
+        <v>0</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="M186" t="str">
         <f t="shared" si="8"/>
@@ -6673,34 +7684,40 @@
       </c>
       <c r="N186" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O186">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P186">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="17">
-      <c r="A187" s="3" t="s">
+      <c r="A187" t="s">
         <v>31</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C187" t="s">
         <v>346</v>
       </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
       <c r="M187" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N187" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O187">
         <f t="shared" si="10"/>
@@ -6712,16 +7729,26 @@
       </c>
     </row>
     <row r="188" spans="1:16" ht="17">
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="G188" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
       <c r="M188" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N188" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O188">
         <f t="shared" si="10"/>
@@ -6733,7 +7760,7 @@
       </c>
     </row>
     <row r="189" spans="1:16" ht="34">
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>222</v>
       </c>
       <c r="M189" t="str">
@@ -6742,7 +7769,7 @@
       </c>
       <c r="N189" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O189">
         <f t="shared" si="10"/>
@@ -6757,11 +7784,20 @@
       <c r="A190" t="s">
         <v>31</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C190" t="s">
         <v>346</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K190" s="5">
+        <v>500</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="M190" t="str">
         <f t="shared" si="8"/>
@@ -6769,7 +7805,7 @@
       </c>
       <c r="N190" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O190">
         <f t="shared" si="10"/>
@@ -6784,19 +7820,22 @@
       <c r="A191" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C191" t="s">
         <v>25</v>
       </c>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
       <c r="M191" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N191" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O191">
         <f t="shared" si="10"/>
@@ -6804,26 +7843,29 @@
       </c>
       <c r="P191">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="17">
       <c r="A192" t="s">
         <v>17</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C192" t="s">
         <v>319</v>
       </c>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
       <c r="M192" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N192" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O192">
         <f t="shared" si="10"/>
@@ -6831,26 +7873,31 @@
       </c>
       <c r="P192">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="17">
       <c r="A193" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C193" t="s">
         <v>21</v>
       </c>
+      <c r="J193" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
       <c r="M193" t="str">
         <f t="shared" si="8"/>
         <v>Canteen</v>
       </c>
       <c r="N193" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O193">
         <f t="shared" si="10"/>
@@ -6858,14 +7905,14 @@
       </c>
       <c r="P193">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="17">
       <c r="A194" t="s">
         <v>31</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C194" t="s">
@@ -6877,7 +7924,7 @@
       </c>
       <c r="N194" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O194">
         <f t="shared" si="10"/>
@@ -6885,11 +7932,11 @@
       </c>
       <c r="P194">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="17">
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>228</v>
       </c>
       <c r="M195" t="str">
@@ -6898,7 +7945,7 @@
       </c>
       <c r="N195" t="str">
         <f t="shared" si="9"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O195">
         <f t="shared" si="10"/>
@@ -6906,11 +7953,11 @@
       </c>
       <c r="P195">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="17">
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>229</v>
       </c>
       <c r="M196" t="str">
@@ -6919,7 +7966,7 @@
       </c>
       <c r="N196" t="str">
         <f t="shared" ref="N196:N259" si="13">IF(F195&lt;&gt;"",F195,N195)</f>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O196">
         <f t="shared" ref="O196:O259" si="14">IF(H195&lt;&gt;"",H195,O195)</f>
@@ -6927,11 +7974,11 @@
       </c>
       <c r="P196">
         <f t="shared" ref="P196:P259" si="15">IF(K195&lt;&gt;"",K195,P195)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="17">
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M197" t="str">
@@ -6940,7 +7987,7 @@
       </c>
       <c r="N197" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O197">
         <f t="shared" si="14"/>
@@ -6948,18 +7995,36 @@
       </c>
       <c r="P197">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="34">
       <c r="A198" t="s">
         <v>16</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H198" s="4">
+        <v>0</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K198" s="5">
+        <v>0</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="M198" t="str">
         <f t="shared" si="12"/>
@@ -6967,7 +8032,7 @@
       </c>
       <c r="N198" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O198">
         <f t="shared" si="14"/>
@@ -6975,26 +8040,32 @@
       </c>
       <c r="P198">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="17">
       <c r="A199" t="s">
         <v>31</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C199" t="s">
         <v>348</v>
       </c>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
       <c r="M199" t="str">
         <f t="shared" si="12"/>
         <v>Canteen</v>
       </c>
       <c r="N199" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O199">
         <f t="shared" si="14"/>
@@ -7009,19 +8080,25 @@
       <c r="A200" t="s">
         <v>16</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
       </c>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
       <c r="M200" t="str">
         <f t="shared" si="12"/>
         <v>Canteen</v>
       </c>
       <c r="N200" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O200">
         <f t="shared" si="14"/>
@@ -7036,19 +8113,29 @@
       <c r="A201" t="s">
         <v>31</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C201" t="s">
         <v>348</v>
       </c>
+      <c r="G201" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
       <c r="M201" t="str">
         <f t="shared" si="12"/>
         <v>Canteen</v>
       </c>
       <c r="N201" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O201">
         <f t="shared" si="14"/>
@@ -7060,7 +8147,7 @@
       </c>
     </row>
     <row r="202" spans="1:16" ht="17">
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>235</v>
       </c>
       <c r="M202" t="str">
@@ -7069,7 +8156,7 @@
       </c>
       <c r="N202" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O202">
         <f t="shared" si="14"/>
@@ -7084,7 +8171,7 @@
       <c r="A203" t="s">
         <v>31</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C203" t="s">
@@ -7096,7 +8183,7 @@
       </c>
       <c r="N203" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O203">
         <f t="shared" si="14"/>
@@ -7111,7 +8198,7 @@
       <c r="A204" t="s">
         <v>16</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C204" t="s">
@@ -7123,7 +8210,7 @@
       </c>
       <c r="N204" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O204">
         <f t="shared" si="14"/>
@@ -7135,7 +8222,7 @@
       </c>
     </row>
     <row r="205" spans="1:16" ht="17">
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>238</v>
       </c>
       <c r="M205" t="str">
@@ -7144,7 +8231,7 @@
       </c>
       <c r="N205" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O205">
         <f t="shared" si="14"/>
@@ -7156,7 +8243,7 @@
       </c>
     </row>
     <row r="206" spans="1:16" ht="17">
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>239</v>
       </c>
       <c r="M206" t="str">
@@ -7165,7 +8252,7 @@
       </c>
       <c r="N206" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O206">
         <f t="shared" si="14"/>
@@ -7177,7 +8264,7 @@
       </c>
     </row>
     <row r="207" spans="1:16" ht="34">
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E207" t="s">
@@ -7189,7 +8276,7 @@
       </c>
       <c r="N207" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O207">
         <f t="shared" si="14"/>
@@ -7201,7 +8288,7 @@
       </c>
     </row>
     <row r="208" spans="1:16" ht="17">
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>241</v>
       </c>
       <c r="M208" t="str">
@@ -7210,7 +8297,7 @@
       </c>
       <c r="N208" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O208">
         <f t="shared" si="14"/>
@@ -7222,8 +8309,17 @@
       </c>
     </row>
     <row r="209" spans="1:16" ht="17">
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>242</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H209" s="4">
+        <v>0</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="M209" t="str">
         <f t="shared" si="12"/>
@@ -7231,7 +8327,7 @@
       </c>
       <c r="N209" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O209">
         <f t="shared" si="14"/>
@@ -7246,11 +8342,23 @@
       <c r="A210" t="s">
         <v>17</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C210" t="s">
         <v>318</v>
+      </c>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K210" s="5">
+        <v>0</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="M210" t="str">
         <f t="shared" si="12"/>
@@ -7258,7 +8366,7 @@
       </c>
       <c r="N210" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O210">
         <f t="shared" si="14"/>
@@ -7273,53 +8381,65 @@
       <c r="A211" t="s">
         <v>16</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C211" t="s">
         <v>21</v>
       </c>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
       <c r="M211" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N211" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O211">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P211">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="P211" t="e">
+        <f>IF(#REF!&lt;&gt;"",#REF!,P210)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="34">
       <c r="A212" t="s">
         <v>16</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C212" t="s">
         <v>21</v>
       </c>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
       <c r="M212" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N212" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O212">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P212">
-        <f t="shared" si="15"/>
+        <f>IF(K210&lt;&gt;"",K210,P211)</f>
         <v>0</v>
       </c>
     </row>
@@ -7327,19 +8447,25 @@
       <c r="A213" t="s">
         <v>16</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C213" t="s">
         <v>311</v>
       </c>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
       <c r="M213" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N213" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O213">
         <f t="shared" si="14"/>
@@ -7354,19 +8480,25 @@
       <c r="A214" t="s">
         <v>16</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C214" t="s">
         <v>311</v>
       </c>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
       <c r="M214" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N214" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O214">
         <f t="shared" si="14"/>
@@ -7381,19 +8513,29 @@
       <c r="A215" t="s">
         <v>17</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C215" t="s">
         <v>22</v>
       </c>
+      <c r="G215" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
       <c r="M215" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N215" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O215">
         <f t="shared" si="14"/>
@@ -7405,8 +8547,17 @@
       </c>
     </row>
     <row r="216" spans="1:16" ht="17">
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>249</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K216" s="5">
+        <v>500</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="M216" t="str">
         <f t="shared" si="12"/>
@@ -7414,7 +8565,7 @@
       </c>
       <c r="N216" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O216">
         <f t="shared" si="14"/>
@@ -7426,16 +8577,19 @@
       </c>
     </row>
     <row r="217" spans="1:16" ht="17">
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
       <c r="M217" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N217" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O217">
         <f t="shared" si="14"/>
@@ -7443,26 +8597,29 @@
       </c>
       <c r="P217">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="17">
       <c r="A218" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
       </c>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
       <c r="M218" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N218" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O218">
         <f t="shared" si="14"/>
@@ -7470,26 +8627,29 @@
       </c>
       <c r="P218">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="17">
       <c r="A219" t="s">
         <v>32</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C219" t="s">
         <v>349</v>
       </c>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
       <c r="M219" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N219" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O219">
         <f t="shared" si="14"/>
@@ -7497,26 +8657,29 @@
       </c>
       <c r="P219">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="17">
       <c r="A220" t="s">
         <v>32</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C220" t="s">
         <v>351</v>
       </c>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
       <c r="M220" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N220" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O220">
         <f t="shared" si="14"/>
@@ -7524,26 +8687,29 @@
       </c>
       <c r="P220">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="17">
       <c r="A221" t="s">
         <v>16</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C221" t="s">
         <v>25</v>
       </c>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
       <c r="M221" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N221" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O221">
         <f t="shared" si="14"/>
@@ -7551,26 +8717,31 @@
       </c>
       <c r="P221">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="34">
       <c r="A222" t="s">
         <v>32</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C222" t="s">
         <v>350</v>
       </c>
+      <c r="J222" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
       <c r="M222" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N222" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O222">
         <f t="shared" si="14"/>
@@ -7578,11 +8749,11 @@
       </c>
       <c r="P222">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="17">
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>256</v>
       </c>
       <c r="M223" t="str">
@@ -7591,7 +8762,7 @@
       </c>
       <c r="N223" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O223">
         <f t="shared" si="14"/>
@@ -7599,11 +8770,11 @@
       </c>
       <c r="P223">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="34">
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>257</v>
       </c>
       <c r="M224" t="str">
@@ -7612,7 +8783,7 @@
       </c>
       <c r="N224" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O224">
         <f t="shared" si="14"/>
@@ -7620,26 +8791,38 @@
       </c>
       <c r="P224">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="34">
       <c r="A225" t="s">
         <v>16</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C225" t="s">
         <v>315</v>
       </c>
+      <c r="G225" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H225" s="4">
+        <v>0</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
       <c r="M225" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N225" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O225">
         <f t="shared" si="14"/>
@@ -7647,18 +8830,30 @@
       </c>
       <c r="P225">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="17">
       <c r="A226" t="s">
         <v>32</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C226" t="s">
         <v>350</v>
+      </c>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K226" s="5">
+        <v>0</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="M226" t="str">
         <f t="shared" si="12"/>
@@ -7666,7 +8861,7 @@
       </c>
       <c r="N226" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O226">
         <f t="shared" si="14"/>
@@ -7674,26 +8869,32 @@
       </c>
       <c r="P226">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="17">
       <c r="A227" t="s">
         <v>16</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C227" t="s">
         <v>21</v>
       </c>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
       <c r="M227" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N227" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O227">
         <f t="shared" si="14"/>
@@ -7708,19 +8909,25 @@
       <c r="A228" t="s">
         <v>16</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C228" t="s">
         <v>21</v>
       </c>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
       <c r="M228" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N228" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O228">
         <f t="shared" si="14"/>
@@ -7735,19 +8942,25 @@
       <c r="A229" t="s">
         <v>32</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C229" t="s">
         <v>352</v>
       </c>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
       <c r="M229" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N229" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O229">
         <f t="shared" si="14"/>
@@ -7762,19 +8975,25 @@
       <c r="A230" t="s">
         <v>32</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C230" t="s">
         <v>350</v>
       </c>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
       <c r="M230" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N230" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O230">
         <f t="shared" si="14"/>
@@ -7786,16 +9005,24 @@
       </c>
     </row>
     <row r="231" spans="1:16" ht="17">
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="G231" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
       <c r="M231" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N231" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O231">
         <f t="shared" si="14"/>
@@ -7807,16 +9034,19 @@
       </c>
     </row>
     <row r="232" spans="1:16" ht="17">
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
       <c r="M232" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N232" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O232">
         <f t="shared" si="14"/>
@@ -7828,16 +9058,21 @@
       </c>
     </row>
     <row r="233" spans="1:16" ht="17">
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="J233" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
       <c r="M233" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare</v>
       </c>
       <c r="N233" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O233">
         <f t="shared" si="14"/>
@@ -7849,7 +9084,7 @@
       </c>
     </row>
     <row r="234" spans="1:16" ht="17">
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E234" t="s">
@@ -7861,7 +9096,7 @@
       </c>
       <c r="N234" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O234">
         <f t="shared" si="14"/>
@@ -7873,7 +9108,7 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="17">
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>268</v>
       </c>
       <c r="M235" t="str">
@@ -7882,7 +9117,7 @@
       </c>
       <c r="N235" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O235">
         <f t="shared" si="14"/>
@@ -7894,7 +9129,7 @@
       </c>
     </row>
     <row r="236" spans="1:16" ht="17">
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>269</v>
       </c>
       <c r="M236" t="str">
@@ -7903,7 +9138,7 @@
       </c>
       <c r="N236" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O236">
         <f t="shared" si="14"/>
@@ -7918,10 +9153,19 @@
       <c r="A237" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C237" t="s">
+        <v>354</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K237" s="5">
+        <v>500</v>
+      </c>
+      <c r="L237" s="5" t="s">
         <v>354</v>
       </c>
       <c r="M237" t="str">
@@ -7930,7 +9174,7 @@
       </c>
       <c r="N237" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O237">
         <f t="shared" si="14"/>
@@ -7945,19 +9189,22 @@
       <c r="A238" t="s">
         <v>16</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
       <c r="M238" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N238" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O238">
         <f t="shared" si="14"/>
@@ -7965,26 +9212,29 @@
       </c>
       <c r="P238">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="34">
       <c r="A239" t="s">
         <v>33</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C239" t="s">
         <v>355</v>
       </c>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
       <c r="M239" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N239" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O239">
         <f t="shared" si="14"/>
@@ -7992,26 +9242,29 @@
       </c>
       <c r="P239">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:16" ht="17">
       <c r="A240" t="s">
         <v>16</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
       </c>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
       <c r="M240" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N240" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O240">
         <f t="shared" si="14"/>
@@ -8019,26 +9272,29 @@
       </c>
       <c r="P240">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="17">
       <c r="A241" t="s">
         <v>33</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C241" t="s">
         <v>355</v>
       </c>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
       <c r="M241" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N241" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O241">
         <f t="shared" si="14"/>
@@ -8046,26 +9302,29 @@
       </c>
       <c r="P241">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="242" spans="1:16" ht="17">
       <c r="A242" t="s">
         <v>16</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C242" t="s">
         <v>21</v>
       </c>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
       <c r="M242" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N242" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O242">
         <f t="shared" si="14"/>
@@ -8073,26 +9332,29 @@
       </c>
       <c r="P242">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="17">
       <c r="A243" t="s">
         <v>33</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C243" t="s">
         <v>355</v>
       </c>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
       <c r="M243" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N243" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O243">
         <f t="shared" si="14"/>
@@ -8100,20 +9362,25 @@
       </c>
       <c r="P243">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="17">
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="J244" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
       <c r="M244" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N244" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O244">
         <f t="shared" si="14"/>
@@ -8121,11 +9388,11 @@
       </c>
       <c r="P244">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="17">
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>278</v>
       </c>
       <c r="M245" t="str">
@@ -8134,7 +9401,7 @@
       </c>
       <c r="N245" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O245">
         <f t="shared" si="14"/>
@@ -8142,18 +9409,27 @@
       </c>
       <c r="P245">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="17">
       <c r="A246" t="s">
         <v>17</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C246" t="s">
         <v>317</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K246" s="5">
+        <v>500</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="M246" t="str">
         <f t="shared" si="12"/>
@@ -8161,7 +9437,7 @@
       </c>
       <c r="N246" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O246">
         <f t="shared" si="14"/>
@@ -8169,26 +9445,31 @@
       </c>
       <c r="P246">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="17">
       <c r="A247" t="s">
         <v>16</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C247" t="s">
         <v>25</v>
       </c>
+      <c r="J247" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
       <c r="M247" t="str">
         <f t="shared" si="12"/>
         <v>Ladder1</v>
       </c>
       <c r="N247" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O247">
         <f t="shared" si="14"/>
@@ -8196,11 +9477,11 @@
       </c>
       <c r="P247">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="17">
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>281</v>
       </c>
       <c r="E248" t="s">
@@ -8212,7 +9493,7 @@
       </c>
       <c r="N248" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O248">
         <f t="shared" si="14"/>
@@ -8220,18 +9501,36 @@
       </c>
       <c r="P248">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="34">
       <c r="A249" t="s">
         <v>29</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C249" t="s">
         <v>343</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H249" s="4">
+        <v>0</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K249" s="5">
+        <v>0</v>
+      </c>
+      <c r="L249" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="M249" t="str">
         <f t="shared" si="12"/>
@@ -8239,7 +9538,7 @@
       </c>
       <c r="N249" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O249">
         <f t="shared" si="14"/>
@@ -8247,26 +9546,32 @@
       </c>
       <c r="P249">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="17">
       <c r="A250" t="s">
         <v>28</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C250" t="s">
         <v>335</v>
       </c>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
       <c r="M250" t="str">
         <f t="shared" si="12"/>
         <v>Garden</v>
       </c>
       <c r="N250" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O250">
         <f t="shared" si="14"/>
@@ -8281,19 +9586,25 @@
       <c r="A251" t="s">
         <v>29</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C251" t="s">
         <v>343</v>
       </c>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
       <c r="M251" t="str">
         <f t="shared" si="12"/>
         <v>Garden</v>
       </c>
       <c r="N251" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O251">
         <f t="shared" si="14"/>
@@ -8308,19 +9619,31 @@
       <c r="A252" t="s">
         <v>28</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C252" t="s">
         <v>336</v>
       </c>
+      <c r="G252" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H252" s="4">
+        <v>0</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
       <c r="M252" t="str">
         <f t="shared" si="12"/>
         <v>Garden</v>
       </c>
       <c r="N252" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O252">
         <f t="shared" si="14"/>
@@ -8335,19 +9658,29 @@
       <c r="A253" t="s">
         <v>28</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C253" t="s">
         <v>336</v>
       </c>
+      <c r="G253" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
       <c r="M253" t="str">
         <f t="shared" si="12"/>
         <v>Garden</v>
       </c>
       <c r="N253" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O253">
         <f t="shared" si="14"/>
@@ -8362,11 +9695,20 @@
       <c r="A254" t="s">
         <v>29</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C254" t="s">
         <v>342</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K254" s="5">
+        <v>500</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="M254" t="str">
         <f t="shared" si="12"/>
@@ -8374,7 +9716,7 @@
       </c>
       <c r="N254" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O254">
         <f t="shared" si="14"/>
@@ -8389,19 +9731,24 @@
       <c r="A255" t="s">
         <v>29</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C255" t="s">
         <v>342</v>
       </c>
+      <c r="J255" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
       <c r="M255" t="str">
         <f t="shared" si="12"/>
         <v>Garden</v>
       </c>
       <c r="N255" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O255">
         <f t="shared" si="14"/>
@@ -8409,11 +9756,11 @@
       </c>
       <c r="P255">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="17">
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>353</v>
       </c>
       <c r="M256" t="str">
@@ -8422,7 +9769,7 @@
       </c>
       <c r="N256" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O256">
         <f t="shared" si="14"/>
@@ -8430,11 +9777,11 @@
       </c>
       <c r="P256">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="34">
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="3" t="s">
         <v>289</v>
       </c>
       <c r="M257" t="str">
@@ -8443,7 +9790,7 @@
       </c>
       <c r="N257" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O257">
         <f t="shared" si="14"/>
@@ -8451,11 +9798,11 @@
       </c>
       <c r="P257">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="17">
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>290</v>
       </c>
       <c r="M258" t="str">
@@ -8464,7 +9811,7 @@
       </c>
       <c r="N258" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O258">
         <f t="shared" si="14"/>
@@ -8472,20 +9819,23 @@
       </c>
       <c r="P258">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="34">
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
       <c r="M259" t="str">
         <f t="shared" si="12"/>
         <v>Garden</v>
       </c>
       <c r="N259" t="str">
         <f t="shared" si="13"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O259">
         <f t="shared" si="14"/>
@@ -8493,18 +9843,36 @@
       </c>
       <c r="P259">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="17">
       <c r="A260" t="s">
         <v>16</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C260" t="s">
         <v>315</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H260" s="4">
+        <v>0</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K260" s="5">
+        <v>0</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="M260" t="str">
         <f t="shared" ref="M260:M278" si="16">IF(E259&lt;&gt;"",E259,M259)</f>
@@ -8512,7 +9880,7 @@
       </c>
       <c r="N260" t="str">
         <f t="shared" ref="N260:N278" si="17">IF(F259&lt;&gt;"",F259,N259)</f>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O260">
         <f t="shared" ref="O260:O278" si="18">IF(H259&lt;&gt;"",H259,O259)</f>
@@ -8520,26 +9888,32 @@
       </c>
       <c r="P260">
         <f t="shared" ref="P260:P278" si="19">IF(K259&lt;&gt;"",K259,P259)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="17">
       <c r="A261" t="s">
         <v>29</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C261" t="s">
         <v>337</v>
       </c>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+      <c r="I261" s="4"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
       <c r="M261" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N261" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O261">
         <f t="shared" si="18"/>
@@ -8554,19 +9928,25 @@
       <c r="A262" t="s">
         <v>16</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C262" t="s">
         <v>316</v>
       </c>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+      <c r="I262" s="4"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
       <c r="M262" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N262" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O262">
         <f t="shared" si="18"/>
@@ -8581,11 +9961,23 @@
       <c r="A263" t="s">
         <v>29</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C263" t="s">
         <v>339</v>
+      </c>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K263" s="5">
+        <v>0</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="M263" t="str">
         <f t="shared" si="16"/>
@@ -8593,7 +9985,7 @@
       </c>
       <c r="N263" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O263">
         <f t="shared" si="18"/>
@@ -8608,19 +10000,29 @@
       <c r="A264" t="s">
         <v>29</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C264" t="s">
         <v>343</v>
       </c>
+      <c r="G264" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H264" s="4"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
       <c r="M264" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N264" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O264">
         <f t="shared" si="18"/>
@@ -8632,7 +10034,7 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="34">
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>297</v>
       </c>
       <c r="M265" t="str">
@@ -8641,7 +10043,7 @@
       </c>
       <c r="N265" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O265">
         <f t="shared" si="18"/>
@@ -8656,11 +10058,20 @@
       <c r="A266" t="s">
         <v>34</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C266" t="s">
         <v>356</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K266" s="5">
+        <v>500</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="M266" t="str">
         <f t="shared" si="16"/>
@@ -8668,7 +10079,7 @@
       </c>
       <c r="N266" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O266">
         <f t="shared" si="18"/>
@@ -8683,19 +10094,22 @@
       <c r="A267" t="s">
         <v>29</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C267" t="s">
         <v>341</v>
       </c>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
       <c r="M267" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N267" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O267">
         <f t="shared" si="18"/>
@@ -8703,20 +10117,25 @@
       </c>
       <c r="P267">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="34">
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="J268" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
       <c r="M268" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N268" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O268">
         <f t="shared" si="18"/>
@@ -8724,18 +10143,27 @@
       </c>
       <c r="P268">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="17">
       <c r="A269" t="s">
         <v>34</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C269" t="s">
         <v>358</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K269" s="5">
+        <v>0</v>
+      </c>
+      <c r="L269" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="M269" t="str">
         <f t="shared" si="16"/>
@@ -8743,7 +10171,7 @@
       </c>
       <c r="N269" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O269">
         <f t="shared" si="18"/>
@@ -8751,26 +10179,38 @@
       </c>
       <c r="P269">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="1:16" ht="17">
       <c r="A270" t="s">
         <v>16</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C270" t="s">
         <v>21</v>
       </c>
+      <c r="G270" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H270" s="4">
+        <v>0</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
       <c r="M270" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N270" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O270">
         <f t="shared" si="18"/>
@@ -8785,19 +10225,25 @@
       <c r="A271" t="s">
         <v>34</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>303</v>
       </c>
       <c r="C271" t="s">
         <v>357</v>
       </c>
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
       <c r="M271" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N271" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O271">
         <f t="shared" si="18"/>
@@ -8812,19 +10258,29 @@
       <c r="A272" t="s">
         <v>34</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C272" t="s">
         <v>358</v>
       </c>
+      <c r="G272" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
       <c r="M272" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N272" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O272">
         <f t="shared" si="18"/>
@@ -8836,8 +10292,26 @@
       </c>
     </row>
     <row r="273" spans="1:16" ht="17">
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>305</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H273" s="4">
+        <v>0</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K273" s="5">
+        <v>0</v>
+      </c>
+      <c r="L273" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="M273" t="str">
         <f t="shared" si="16"/>
@@ -8845,7 +10319,7 @@
       </c>
       <c r="N273" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O273">
         <f t="shared" si="18"/>
@@ -8860,19 +10334,25 @@
       <c r="A274" t="s">
         <v>34</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C274" t="s">
         <v>357</v>
       </c>
+      <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
       <c r="M274" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N274" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O274">
         <f t="shared" si="18"/>
@@ -8887,19 +10367,29 @@
       <c r="A275" t="s">
         <v>34</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C275" t="s">
         <v>358</v>
       </c>
+      <c r="G275" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
       <c r="M275" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N275" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O275">
         <f t="shared" si="18"/>
@@ -8914,19 +10404,25 @@
       <c r="A276" t="s">
         <v>29</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C276" t="s">
         <v>340</v>
       </c>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
       <c r="M276" t="str">
         <f t="shared" si="16"/>
         <v>Garden</v>
       </c>
       <c r="N276" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O276">
         <f t="shared" si="18"/>
@@ -8938,11 +10434,20 @@
       </c>
     </row>
     <row r="277" spans="1:16" ht="17">
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="3" t="s">
         <v>309</v>
       </c>
       <c r="E277" t="s">
         <v>370</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H277" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="M277" t="str">
         <f t="shared" si="16"/>
@@ -8950,7 +10455,7 @@
       </c>
       <c r="N277" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O277">
         <f t="shared" si="18"/>
@@ -8965,7 +10470,7 @@
       <c r="A278" t="s">
         <v>16</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C278" t="s">
@@ -8977,11 +10482,11 @@
       </c>
       <c r="N278" t="str">
         <f t="shared" si="17"/>
-        <v>Happy</v>
+        <v>Finding</v>
       </c>
       <c r="O278">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P278">
         <f t="shared" si="19"/>

--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727F3CD-A6A9-BE4D-B95D-F9A6831F737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE0E7F5-C546-1442-960A-C5B6F1B7EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="403">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1634,6 +1634,14 @@
   </si>
   <si>
     <t>Yao-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2048,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF14D6-CAD6-5C44-AFA5-A105C1944E5C}">
-  <dimension ref="A1:P279"/>
+  <dimension ref="A1:R279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2067,9 +2075,10 @@
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2118,8 +2127,14 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="34">
+      <c r="Q1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2157,7 +2172,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="34">
+    <row r="3" spans="1:18" ht="34">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17">
+    <row r="4" spans="1:18" ht="17">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="34">
+    <row r="5" spans="1:18" ht="34">
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17">
+    <row r="6" spans="1:18" ht="17">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="34">
+    <row r="7" spans="1:18" ht="34">
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2290,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="34">
+    <row r="8" spans="1:18" ht="34">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2323,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="34">
+    <row r="9" spans="1:18" ht="34">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17">
+    <row r="10" spans="1:18" ht="17">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="34">
+    <row r="11" spans="1:18" ht="34">
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17">
+    <row r="12" spans="1:18" ht="17">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2443,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17">
+    <row r="13" spans="1:18" ht="17">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17">
+    <row r="14" spans="1:18" ht="17">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2503,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="34">
+    <row r="15" spans="1:18" ht="34">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2533,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17">
+    <row r="16" spans="1:18" ht="17">
       <c r="B16" s="3" t="s">
         <v>48</v>
       </c>

--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7200218-0AA1-A04A-AA7B-ADE9DBE37018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CB38E-D956-3A40-91CE-3CEACAA12F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="874">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3515,6 +3515,14 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Let’s begin with those most familiar with the manor—Steward He and Ling.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3581,7 +3589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3598,9 +3606,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3943,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF14D6-CAD6-5C44-AFA5-A105C1944E5C}">
-  <dimension ref="A1:R676"/>
+  <dimension ref="A1:T676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B668" sqref="B668"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3963,9 +3968,10 @@
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4020,8 +4026,14 @@
       <c r="R1" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="34">
+      <c r="S1" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="34">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="34">
+    <row r="3" spans="1:20" ht="34">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17">
+    <row r="4" spans="1:20" ht="17">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="51">
+    <row r="5" spans="1:20" ht="51">
       <c r="B5" s="3" t="s">
         <v>638</v>
       </c>
@@ -4159,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="34">
+    <row r="6" spans="1:20" ht="34">
       <c r="B6" s="3" t="s">
         <v>639</v>
       </c>
@@ -4183,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34">
+    <row r="7" spans="1:20" ht="34">
       <c r="B7" s="3" t="s">
         <v>640</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="34">
+    <row r="8" spans="1:20" ht="34">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="34">
+    <row r="9" spans="1:20" ht="34">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17">
+    <row r="10" spans="1:20" ht="17">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="34">
+    <row r="11" spans="1:20" ht="34">
       <c r="B11" s="3" t="s">
         <v>641</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17">
+    <row r="12" spans="1:20" ht="17">
       <c r="B12" s="3" t="s">
         <v>642</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17">
+    <row r="13" spans="1:20" ht="17">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17">
+    <row r="14" spans="1:20" ht="17">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="34">
+    <row r="15" spans="1:20" ht="34">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17">
+    <row r="16" spans="1:20" ht="17">
       <c r="B16" s="3" t="s">
         <v>643</v>
       </c>
@@ -11325,26 +11337,26 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="7" customFormat="1" ht="34">
-      <c r="B224" s="8" t="s">
+    <row r="224" spans="1:16" s="6" customFormat="1" ht="34">
+      <c r="B224" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="D224" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M224" s="7" t="str">
+      <c r="D224" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M224" s="6" t="str">
         <f t="shared" si="12"/>
         <v>TrainingSquare-Day</v>
       </c>
-      <c r="N224" s="7" t="str">
+      <c r="N224" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Finding</v>
       </c>
-      <c r="O224" s="7">
+      <c r="O224" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P224" s="7">
+      <c r="P224" s="6">
         <f t="shared" si="15"/>
         <v>500</v>
       </c>
@@ -17795,9 +17807,6 @@
       <c r="D422" t="s">
         <v>18</v>
       </c>
-      <c r="G422" s="6"/>
-      <c r="H422" s="6"/>
-      <c r="I422" s="6"/>
       <c r="M422" t="str">
         <f t="shared" si="32"/>
         <v>BanquetHall-Thunder</v>
@@ -17828,9 +17837,6 @@
       <c r="D423" t="s">
         <v>18</v>
       </c>
-      <c r="G423" s="6"/>
-      <c r="H423" s="6"/>
-      <c r="I423" s="6"/>
       <c r="J423" s="5" t="s">
         <v>282</v>
       </c>
@@ -20335,9 +20341,6 @@
       <c r="D500" t="s">
         <v>18</v>
       </c>
-      <c r="G500" s="6"/>
-      <c r="H500" s="6"/>
-      <c r="I500" s="6"/>
       <c r="M500" t="str">
         <f t="shared" si="36"/>
         <v>Corrider-Raining</v>
@@ -20368,9 +20371,6 @@
       <c r="D501" t="s">
         <v>18</v>
       </c>
-      <c r="G501" s="6"/>
-      <c r="H501" s="6"/>
-      <c r="I501" s="6"/>
       <c r="J501" s="5" t="s">
         <v>282</v>
       </c>
@@ -20404,9 +20404,6 @@
       <c r="D502" t="s">
         <v>18</v>
       </c>
-      <c r="G502" s="6"/>
-      <c r="H502" s="6"/>
-      <c r="I502" s="6"/>
       <c r="J502" s="5"/>
       <c r="K502" s="5"/>
       <c r="L502" s="5"/>

--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A2828-5261-CD46-B4BC-BB0EB3CC498B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA8F983-5C0E-D848-B589-66A529351093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="192">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,10 @@
   </si>
   <si>
     <t>Room-Outside1</t>
+  </si>
+  <si>
+    <t>&lt;color=#00CC00&gt;(......)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1232,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF14D6-CAD6-5C44-AFA5-A105C1944E5C}">
-  <dimension ref="A1:P225"/>
+  <dimension ref="A1:P227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1483,17 +1487,11 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="17">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>117</v>
@@ -1501,41 +1499,26 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="17">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="34">
+    </row>
+    <row r="12" spans="1:16" ht="17">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1544,13 +1527,16 @@
         <v>117</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="17">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1560,14 +1546,24 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="34">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1576,61 +1572,57 @@
         <v>117</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="J14" s="5" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="17">
+      <c r="B15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="34">
+      <c r="B16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="J16" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K16" s="5">
         <v>500</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="34">
-      <c r="A15" t="s">
+    <row r="17" spans="1:12" ht="34">
+      <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" ht="17">
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="17">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1644,14 +1636,8 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="17">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1664,15 +1650,15 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="34">
+    <row r="19" spans="1:12" ht="17">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1687,13 +1673,13 @@
     </row>
     <row r="20" spans="1:12" ht="17">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1706,15 +1692,15 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="17">
+    <row r="21" spans="1:12" ht="34">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1729,13 +1715,13 @@
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1744,15 +1730,19 @@
         <v>118</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="J22" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="34">
+    <row r="23" spans="1:12" ht="17">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>147</v>
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1761,10 +1751,19 @@
         <v>118</v>
       </c>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="34">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="17">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1773,16 +1772,15 @@
         <v>118</v>
       </c>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="17">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
+      <c r="J24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="34">
       <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1791,34 +1789,10 @@
         <v>118</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="26" spans="1:12" ht="34">
       <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1827,22 +1801,16 @@
         <v>118</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="17">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1851,16 +1819,34 @@
         <v>118</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="34">
+      <c r="G27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1869,86 +1855,98 @@
         <v>118</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="34">
+    <row r="29" spans="1:12" ht="17">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>150</v>
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="17">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="34">
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="34">
+    <row r="32" spans="1:12" ht="17">
       <c r="B32" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="34">
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="34">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1957,34 +1955,10 @@
         <v>140</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="17">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="35" spans="1:12" ht="34">
       <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1993,22 +1967,16 @@
         <v>140</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" ht="17">
+    </row>
+    <row r="36" spans="1:12" ht="34">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2018,64 +1986,79 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="17">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" ht="34">
-      <c r="B37" s="3" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="34">
+      <c r="B39" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" ht="34">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="J38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="5">
-        <v>500</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="34">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2084,67 +2067,70 @@
         <v>138</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" ht="17">
+    </row>
+    <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" ht="17">
+      <c r="J40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="5">
+        <v>500</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="34">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="F41" s="2"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="34">
+    <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="F42" s="2"/>
       <c r="J42" s="5"/>
@@ -2156,10 +2142,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -2168,15 +2154,19 @@
         <v>189</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="J43" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="34">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>156</v>
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -2185,16 +2175,19 @@
         <v>189</v>
       </c>
       <c r="F44" s="2"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="17">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2203,34 +2196,15 @@
         <v>189</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="J45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="17">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="34">
       <c r="B46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -2239,56 +2213,80 @@
         <v>189</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="17">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="34">
+      <c r="G47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
       <c r="B48" s="3" t="s">
-        <v>157</v>
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F48" s="2"/>
+      <c r="G48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="17">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2297,34 +2295,10 @@
         <v>121</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="17">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="50" spans="1:12" ht="34">
       <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2333,20 +2307,16 @@
         <v>121</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" ht="34">
+    </row>
+    <row r="51" spans="1:12" ht="17">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
       <c r="B51" s="3" t="s">
-        <v>169</v>
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -2355,10 +2325,34 @@
         <v>121</v>
       </c>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" ht="34">
+      <c r="G51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>158</v>
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -2367,10 +2361,20 @@
         <v>121</v>
       </c>
       <c r="F52" s="2"/>
+      <c r="G52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="34">
       <c r="B53" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -2380,15 +2384,9 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="17">
-      <c r="A54" t="s">
-        <v>182</v>
-      </c>
+    <row r="54" spans="1:12" ht="34">
       <c r="B54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2397,25 +2395,10 @@
         <v>121</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="J54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K54" s="5">
-        <v>500</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="17">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="55" spans="1:12" ht="34">
       <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -2424,19 +2407,16 @@
         <v>121</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="17">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
@@ -2446,20 +2426,24 @@
       </c>
       <c r="F56" s="2"/>
       <c r="J56" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="K56" s="5">
+        <v>500</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="17">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -2468,34 +2452,19 @@
         <v>121</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="17">
       <c r="A58" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -2504,22 +2473,21 @@
         <v>121</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="17">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -2528,22 +2496,34 @@
         <v>121</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="G59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="17">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -2564,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>115</v>
@@ -2583,15 +2563,15 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" ht="34">
+    <row r="62" spans="1:12" ht="17">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -2609,13 +2589,13 @@
     </row>
     <row r="63" spans="1:12" ht="17">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -2624,26 +2604,22 @@
         <v>121</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="17">
+    <row r="64" spans="1:12" ht="34">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -2652,19 +2628,22 @@
         <v>121</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="J64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K64" s="5">
-        <v>500</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="34">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" ht="17">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
       <c r="B65" s="3" t="s">
-        <v>160</v>
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -2673,13 +2652,26 @@
         <v>121</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="J65" s="5"/>
+      <c r="G65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="34">
+    <row r="66" spans="1:12" ht="17">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -2688,13 +2680,19 @@
         <v>121</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K66" s="5">
+        <v>500</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="67" spans="1:12" ht="34">
       <c r="B67" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -2707,15 +2705,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" ht="17">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
+    <row r="68" spans="1:12" ht="34">
       <c r="B68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2724,15 +2716,13 @@
         <v>121</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="J68" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="34">
       <c r="B69" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2741,16 +2731,19 @@
         <v>121</v>
       </c>
       <c r="F69" s="2"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="17">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -2760,18 +2753,14 @@
       </c>
       <c r="F70" s="2"/>
       <c r="J70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K70" s="5">
-        <v>500</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="17">
+        <v>125</v>
+      </c>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" ht="34">
       <c r="B71" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -2780,19 +2769,16 @@
         <v>121</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="17">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -2808,18 +2794,12 @@
         <v>500</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
       <c r="B73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -2837,10 +2817,10 @@
         <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -2850,20 +2830,24 @@
       </c>
       <c r="F74" s="2"/>
       <c r="J74" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="K74" s="5">
+        <v>500</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="17">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -2872,25 +2856,19 @@
         <v>121</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H75" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="17">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -2899,19 +2877,21 @@
         <v>121</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="J76" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="17">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -2921,14 +2901,24 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" ht="34">
+        <v>128</v>
+      </c>
+      <c r="H77" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
       <c r="B78" s="3" t="s">
-        <v>162</v>
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -2937,10 +2927,19 @@
         <v>121</v>
       </c>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" ht="34">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" ht="17">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -2949,60 +2948,45 @@
         <v>121</v>
       </c>
       <c r="F79" s="2"/>
+      <c r="G79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="34">
-      <c r="A80" t="s">
+      <c r="B80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="34">
+      <c r="B81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" ht="34">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>109</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>138</v>
-      </c>
-      <c r="F80" s="2"/>
-      <c r="J80" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K80" s="5">
-        <v>500</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="34">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>138</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="J81" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" ht="34">
-      <c r="B82" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -3011,16 +2995,25 @@
         <v>138</v>
       </c>
       <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" ht="17">
+      <c r="J82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K82" s="5">
+        <v>500</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="34">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -3029,34 +3022,15 @@
         <v>138</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="J83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K83" s="5">
-        <v>0</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="17">
-      <c r="A84" t="s">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" ht="34">
       <c r="B84" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3065,77 +3039,76 @@
         <v>138</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" ht="34">
+    </row>
+    <row r="85" spans="1:12" ht="17">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J85" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="17">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="J86" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K86" s="5">
-        <v>500</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="17">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" ht="34">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -3144,7 +3117,14 @@
         <v>139</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="J87" s="5"/>
+      <c r="G87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
@@ -3153,10 +3133,10 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3165,19 +3145,25 @@
         <v>139</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="J88" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K88" s="5">
+        <v>500</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="17">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -3195,7 +3181,7 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
         <v>112</v>
@@ -3216,10 +3202,10 @@
         <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -3228,15 +3214,19 @@
         <v>139</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="J91" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" ht="34">
+    <row r="92" spans="1:12" ht="17">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
       <c r="B92" s="3" t="s">
-        <v>164</v>
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -3245,16 +3235,19 @@
         <v>139</v>
       </c>
       <c r="F92" s="2"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="17">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -3263,46 +3256,51 @@
         <v>139</v>
       </c>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" ht="17">
-      <c r="A94" t="s">
+      <c r="J93" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" ht="34">
+      <c r="B94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" ht="17">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" ht="17">
+      <c r="A96" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>16</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>138</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" ht="34">
-      <c r="B95" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" ht="34">
-      <c r="A96" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" t="s">
-        <v>109</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -3311,78 +3309,70 @@
         <v>138</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="J96" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K96" s="5">
-        <v>500</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="97" spans="1:12" ht="34">
       <c r="B97" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="1:12" ht="17">
+    </row>
+    <row r="98" spans="1:12" ht="34">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="J98" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K98" s="5">
+        <v>500</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="99" spans="1:12" ht="34">
-      <c r="A99" t="s">
-        <v>19</v>
-      </c>
       <c r="B99" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="J99" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" ht="34">
+    <row r="100" spans="1:12" ht="17">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
       <c r="B100" s="3" t="s">
-        <v>166</v>
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -3391,16 +3381,19 @@
         <v>190</v>
       </c>
       <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" ht="17">
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" ht="34">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -3409,16 +3402,15 @@
         <v>190</v>
       </c>
       <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" ht="17">
-      <c r="A102" t="s">
-        <v>12</v>
-      </c>
+      <c r="J101" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" ht="34">
       <c r="B102" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -3430,13 +3422,13 @@
     </row>
     <row r="103" spans="1:12" ht="17">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -3446,9 +3438,15 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="34">
+    <row r="104" spans="1:12" ht="17">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
       <c r="B104" s="3" t="s">
-        <v>168</v>
+        <v>89</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -3458,15 +3456,15 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="34">
+    <row r="105" spans="1:12" ht="17">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -3475,34 +3473,10 @@
         <v>190</v>
       </c>
       <c r="F105" s="2"/>
-      <c r="G105" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K105" s="5">
-        <v>0</v>
-      </c>
-      <c r="L105" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="17">
-      <c r="A106" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="106" spans="1:12" ht="34">
       <c r="B106" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -3511,16 +3485,16 @@
         <v>190</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" ht="17">
+    </row>
+    <row r="107" spans="1:12" ht="34">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
       <c r="B107" s="3" t="s">
-        <v>174</v>
+        <v>91</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -3530,55 +3504,73 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" ht="17">
+      <c r="B109" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>190</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="5" t="s">
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" ht="34">
-      <c r="B108" s="3" t="s">
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" ht="34">
+      <c r="B110" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" ht="34">
-      <c r="A109" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
-        <v>123</v>
-      </c>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" ht="34">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" t="s">
-        <v>106</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -3587,25 +3579,16 @@
         <v>123</v>
       </c>
       <c r="F110" s="2"/>
-      <c r="J110" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K110" s="5">
-        <v>500</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="17">
+    </row>
+    <row r="111" spans="1:12" ht="34">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
@@ -3614,19 +3597,16 @@
         <v>123</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" ht="17">
+    </row>
+    <row r="112" spans="1:12" ht="34">
       <c r="A112" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -3636,14 +3616,24 @@
       </c>
       <c r="F112" s="2"/>
       <c r="J112" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" ht="17">
+        <v>128</v>
+      </c>
+      <c r="K112" s="5">
+        <v>500</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="17">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
       <c r="B113" s="3" t="s">
-        <v>175</v>
+        <v>95</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -3652,16 +3642,19 @@
         <v>123</v>
       </c>
       <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" ht="17">
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="1:12" ht="17">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -3670,25 +3663,15 @@
         <v>123</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H114" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="17">
-      <c r="A115" t="s">
-        <v>12</v>
-      </c>
+      <c r="J114" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="1:12" ht="17">
       <c r="B115" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
@@ -3697,16 +3680,13 @@
         <v>123</v>
       </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" ht="17">
+    </row>
+    <row r="116" spans="1:12" ht="17">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -3719,63 +3699,111 @@
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" ht="17">
+        <v>128</v>
+      </c>
+      <c r="H116" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="17">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
       <c r="B117" s="3" t="s">
-        <v>186</v>
+        <v>98</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
       </c>
       <c r="E117" t="s">
         <v>123</v>
       </c>
       <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" ht="17">
-      <c r="A118" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>187</v>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" ht="17">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
       </c>
       <c r="E118" t="s">
         <v>123</v>
       </c>
       <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" ht="17">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>185</v>
+      <c r="G118" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" ht="17">
+      <c r="B119" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E119" t="s">
         <v>123</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="17">
-      <c r="A120" s="7"/>
+    <row r="120" spans="1:12" ht="17">
+      <c r="A120" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="B120" s="8" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E120" t="s">
         <v>123</v>
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="225" spans="2:2" s="6" customFormat="1">
-      <c r="B225" s="9"/>
+    <row r="121" spans="1:12" ht="17">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E121" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" ht="17">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E122" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="227" spans="2:2" s="6" customFormat="1">
+      <c r="B227" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA8F983-5C0E-D848-B589-66A529351093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090AF445-FDF1-414E-BBA0-7F44FA08B909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="192">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,26 +126,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No wonder that suspension bridge ahead looked like a rickety wooden toy—seems like it could fall apart any minute.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>So this is the legendary Qingliu Manor? The entrance certainly looks imposing, but…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Let’s knock first and see.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>That’s a tough question. I haven’t met the steward myself.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’ve only heard that he is a respected elder with expertise in waterworks and river engineering.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Where are you two travelers from, and what business brings you to our manor?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,38 +138,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We are travelers passing through. I am Di Renjie.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We are journeying from Luoyang and stopped here to enjoy the scenery of the Gong River.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ah, esteemed guests from distant Luoyang.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am He Mao, the steward of Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sir, what kind of person do you think the owner of Qingliu Manor is?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please, come inside. I will inform the master of your visit shortly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gentlemen, I’ve already informed the master of your visit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He awaits you in the main hall. Please follow me.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,22 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The front yard and training ground are the lowest points of the manor's terrain.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>They flood during heavy rains, so please be cautious.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I see. Much obliged, Steward He.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This corridor runs along the edge of the training grounds, serving as a key passage connecting various parts of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We continued walking and eventually reached the staircase leading to the main hall.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,74 +178,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Indeed, there's the training ground we passed earlier!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please come in. The master has been expecting you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From Shanxi's Bingzhou—Di Renjie, at your service.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From Xia Shi in Shanzhou—Yao Chong, at your service.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome, honored guests from afar.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Xu Guang, the master of Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steward He, please serve our guests some tea.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To think we could enjoy the rare Wuyi Da Hong Pao tea in these mountains!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You flatter us, Mr. Di. It’s merely modest tea, nothing special.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steward He, please prepare two rooms in the guest wing for our visitors to rest.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Many thanks for your hospitality, Master Xu. Apologies for the sudden visit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No need to be so formal, Mr. Di.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As it happens, today is my birthday. We will be holding a banquet at the manor this evening. I do hope you’ll attend.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Since you’ve so kindly invited us, we shall be honored to attend.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, a letter just arrived for you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also, Master, there are two more guests who have arrived.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where are they?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dear guests, you must be tired from your journey.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In that case, we won’t keep you, Master Xu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao, let’s go.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,34 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>That is the famous Sutra Pavilion of Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It's said to contain many rare books collected by generations of manor masters.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master Di truly is knowledgeable. Indeed, that is the case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The treasures within the Sutra Pavilion are the pride of our manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>However, the master has ordered that no one may enter it now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What a pity! Not even those who work in the manor may enter?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No, without the master’s permission, no one is allowed inside.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why is that?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,22 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Is this the rear courtyard?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, this is where the master’s family’s chambers, study, and guest rooms are located.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honored guests, I must be frank—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Due to the master’s birthday, many visitors have come to celebrate. At the moment, this is the only guest room left.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It’s no problem. We are merely travelers in the mountains.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,22 +242,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How odd—why was he in such a hurry? Could it be related to that letter earlier?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Never mind. After all that travel, I’m exhausted.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Don’t be upset, Yao. Although this room is much simpler than our lodgings in Luoyang…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judging by the master’s reaction earlier, it’s clear the guest room originally arranged for us was given to the two unexpected visitors.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes, it’s definitely strange.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It’s probably around Shen hour (3–5 PM) now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I wonder what time the birthday banquet will begin.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu-Astonished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Door-Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu-Thinking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Shock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The Master tidied his attire, brushed off the dirt and grass from our mountain hike.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#00CC00&gt;(Then knocked gently on the door.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,50 +435,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As Steward He slowly closed the heavy doors, I couldn’t help but look back.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Beneath the gloomy sky, the doors appeared dark and foreboding.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I followed the master toward the main hall, stealing glances at the manor along the way.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Upon entering the gate, we first arrived at the front courtyard.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(It was spacious and well-lit, adorned with many paintings and calligraphy—simple yet elegant.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A short walk further led us to the guest hall.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(A large, square area with weapon racks around the edges—likely where the manor's guards train.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Beyond the hall, we reached the training grounds.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We climbed the stairs to the north of the training ground and arrived at a long corridor.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(After some effort, we finally arrived at the front of the main hall.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00CC00&gt;(With Steward He’s introduction, we were finally brought before the current master of Qingliu Manor.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(His clothes were splendid, his gaze sharp, and he wore two ornate, ancient blades at his waist.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,42 +459,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just as we were about to take our leave, Steward He rushed forward and handed a letter to the master.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I might have imagined it, but after reading the letter, the master’s expression briefly stiffened.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Somehow, that meeting with the master ended rather hastily…)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(After leaving the main hall, we returned to the long corridor.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He lowered his gaze, clearly unwilling to explain why the pavilion was sealed off.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Before us lay elegant rockeries, ponds, and meticulously tended flowers and plants.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He’s face showed an awkward expression.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(After several twists and turns, we arrived at the door of a guest room.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With that, Steward He turned and quickly retraced his steps.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Seated in the hall was a distinguished-looking man.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,30 +479,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Then he whispered something in the master's ear.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Why did the master's mood shift so abruptly?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(The room was neat and tidy, though it only had a single large bed and a few simple furnishings.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I opened the door and set down our luggage.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Master looked out the window.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He explained the layout of the manor while guiding us along.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SoundEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +537,278 @@
   </si>
   <si>
     <t>&lt;color=#00CC00&gt;(......)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gentlemen, I’ve already informed the Lord of your visit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A short walk further led us to the meeting hall.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many thanks for your hospitality. Apologies for the sudden visit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In that case, we won’t keep you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That is the Treasure Vault of Qingliu Manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's said to contain many rare books and documents collected by the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The treasures within the Treasure Vault are the pride of our manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, the Lord has ordered that no one may enter it now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, without the Lord’s permission, no one is allowed inside.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this the rear backyard?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How odd—why was he in such a hurry? Could it be related to the whisper just now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judging from the Lord’s reaction, it seems he didn’t have time to arrange our rooms before rushing off to deal with something urgent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I looked out the window.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I tidied his attire, brushed off the dirt and grass from our mountain hike.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Why did the Lord's mood shift so abruptly?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Somehow, that meeting with the Lord ended rather hastily…)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are journeying from Luoyang and stopped here to enjoy the scenery of the JiuJiang River.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are travelers passing through. I am Judge Dee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I heard he rendered great service during the King of Yue’s campaign ten years ago, rising from an ordinary county magistrate to the regional head of waterworks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ah, esteemed guests from Luoyang.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am He, the butler of Qingliu Manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please, come inside. I will inform the lord of your visit shortly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As Butler He slowly closed the heavy doors, We couldn’t help but look back.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We followed Butler He toward the main hall, stealing glances at the manor along the way.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Upon entering the gate, we first arrived at the frontyard.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Beyond the hall, we reached the training square.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The frontyard and training square are the lowest points of the manor's terrain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. Much obliged.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We climbed the stairs to the north of the training square and arrived at a long corridor.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This corridor runs along the edge of the training square, serving as a key passage connecting various parts of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indeed, there's the training square we passed earlier!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please come in. The Lord has been expecting you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00CC00&gt;(With Butler He’s introduction, we were finally brought before the lord of Qingliu Manor.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge Dee, at your service.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, at your service.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Xu, the Lord of Qingliu Manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He, please serve our guests some tea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To think we could enjoy the rare Wuyi Oolong tea in these mountains!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You flatter us, Sir. It’s merely modest tea, nothing special.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He, please prepare an room in the guest wing for our visitors to rest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to be so formal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As it happens, today is my birthday. We will be holding a banquet at the manor this evening. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I do hope you’ll attend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Lord, I have an urgent matter to report.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we were about to take our leave, Butler He rushed over to the Lord and bent down to whisper a few words into his ear.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Upon hearing his words, the Lord’s expression changed in an instant.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He explained the layout of the manor while guiding us along.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You truly is knowledgeable. Indeed, that is the case.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He lowered his gaze, clearly unwilling to explain why the Treasure Vault was sealed off.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, this is where the Lord’s study, bedroom are located.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due to the Lord’s birthday, many visitors have come to celebrate. At the moment, this is the only one guest room left.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His face showed an awkward expression.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With that, He turned and quickly retraced his steps.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao opened the door and set down our luggage.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No wonder that  bridge ahead looked like a rickety wooden toy——seems like it could fall apart any minute.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So this is the legendary Qingliu Manor? The entrance certainly looks imposing, but......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That’s a tough question. I haven’t met the Lord myself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honored guests, I must be frank——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don’t be upset, Yao. Although this room is much simpler than our lodgings in Luoyang......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>It’s probably around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Shen hour (3 PM) now.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -836,8 +848,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +875,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -871,7 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +926,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF14D6-CAD6-5C44-AFA5-A105C1944E5C}">
-  <dimension ref="A1:P227"/>
+  <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1295,16 +1329,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1">
@@ -1312,19 +1346,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -1341,11 +1375,11 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -1354,13 +1388,19 @@
         <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K3" s="5">
         <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>135</v>
+        <v>89</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
@@ -1368,72 +1408,78 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="34">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="34">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H6" s="4">
         <v>-500</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17">
@@ -1441,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1450,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
@@ -1459,54 +1505,54 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="17">
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="B10" s="3" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="17">
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1515,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1524,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1533,43 +1579,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H13" s="4">
         <v>-500</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="51">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1578,84 +1624,84 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="34">
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2"/>
       <c r="J16" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K16" s="5">
         <v>500</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="34">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="17">
+    <row r="18" spans="1:14" ht="17">
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="17">
+    <row r="19" spans="1:14" ht="17">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1664,19 +1710,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="17">
+    <row r="20" spans="1:14" ht="17">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1685,142 +1731,156 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="34">
+    <row r="21" spans="1:14" ht="34">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="17">
+      <c r="M21" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="17">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="17">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="17">
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="17">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F24" s="2"/>
       <c r="J24" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="34">
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34">
       <c r="B25" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="34">
+    <row r="26" spans="1:14" ht="34">
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="17">
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -1829,30 +1889,30 @@
         <v>17</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K27" s="5">
         <v>0</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1862,12 +1922,12 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="17">
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1876,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
@@ -1886,107 +1946,107 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="34">
+    <row r="30" spans="1:14" ht="34">
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="34">
+    <row r="31" spans="1:14" ht="34">
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="17">
+    <row r="32" spans="1:14" ht="17">
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="34">
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="34">
+    <row r="34" spans="1:12" ht="17">
       <c r="B34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="B35" s="3" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="34">
+    <row r="36" spans="1:12" ht="17">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
@@ -1995,13 +2055,13 @@
         <v>17</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K36" s="5">
         <v>0</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17">
@@ -2009,16 +2069,16 @@
         <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
@@ -2033,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2042,29 +2102,29 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="34">
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2073,26 +2133,26 @@
         <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2"/>
       <c r="J40" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K40" s="5">
         <v>500</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="34">
@@ -2100,16 +2160,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2"/>
       <c r="J41" s="5"/>
@@ -2121,16 +2181,16 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2"/>
       <c r="J42" s="5"/>
@@ -2142,16 +2202,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2"/>
       <c r="J43" s="5"/>
@@ -2163,16 +2223,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F44" s="2"/>
       <c r="J44" s="5"/>
@@ -2184,33 +2244,33 @@
         <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F45" s="2"/>
       <c r="J45" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="34">
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2219,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -2228,26 +2288,26 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K47" s="5">
         <v>0</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17">
@@ -2255,65 +2315,65 @@
         <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="17">
+    <row r="49" spans="1:14" ht="17">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="34">
+    <row r="50" spans="1:14" ht="34">
       <c r="B50" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="17">
+    <row r="51" spans="1:14" ht="17">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2322,11 +2382,11 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
@@ -2335,156 +2395,156 @@
         <v>17</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="34">
+    <row r="53" spans="1:14" ht="34">
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="34">
+    <row r="54" spans="1:14" ht="34">
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="34">
+    <row r="55" spans="1:14" ht="34">
       <c r="B55" s="3" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="17">
+    <row r="56" spans="1:14" ht="17">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2"/>
       <c r="J56" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K56" s="5">
         <v>500</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17">
       <c r="A57" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" ht="17">
+    <row r="58" spans="1:14" ht="17">
       <c r="A58" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2"/>
       <c r="J58" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" ht="17">
+    <row r="59" spans="1:14" ht="17">
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>56</v>
+      <c r="B59" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2493,43 +2553,49 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H59" s="4">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K59" s="5">
         <v>0</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="17">
+        <v>69</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17">
       <c r="A60" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2538,22 +2604,24 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" ht="17">
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" ht="17">
       <c r="A61" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4"/>
@@ -2562,13 +2630,17 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" ht="17">
+      <c r="M61" s="11"/>
+      <c r="N61" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2577,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2586,22 +2658,24 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="17">
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" ht="17">
       <c r="A63" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4"/>
@@ -2611,21 +2685,21 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="34">
+    <row r="64" spans="1:14" ht="34">
       <c r="A64" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4"/>
@@ -2637,83 +2711,92 @@
     </row>
     <row r="65" spans="1:12" ht="17">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="17">
       <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" ht="17">
+      <c r="A67" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="J66" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K66" s="5">
+      <c r="B67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="J67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K67" s="5">
         <v>500</v>
       </c>
-      <c r="L66" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="34">
-      <c r="B67" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
+      <c r="L67" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="34">
       <c r="B68" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2"/>
       <c r="J68" s="5"/>
@@ -2722,90 +2805,91 @@
     </row>
     <row r="69" spans="1:12" ht="34">
       <c r="B69" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" ht="17">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
+    <row r="70" spans="1:12" ht="34">
       <c r="B70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" t="s">
         <v>110</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="J70" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="34">
+    <row r="71" spans="1:12" ht="17">
       <c r="B71" s="3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F71" s="2"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="17">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2"/>
       <c r="J72" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K72" s="5">
         <v>500</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
       <c r="B73" s="3" t="s">
-        <v>172</v>
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2"/>
       <c r="J73" s="5"/>
@@ -2817,314 +2901,314 @@
         <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2"/>
       <c r="J74" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K74" s="5">
-        <v>500</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="17">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="G75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="17">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="J76" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="17">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="17">
-      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" ht="34">
+      <c r="B78" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="34">
+      <c r="B79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="34">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="J80" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K80" s="5">
+        <v>500</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="34">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="J81" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" ht="34">
+      <c r="B82" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" ht="17">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="17">
+      <c r="A84" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B84" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
         <v>15</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" ht="17">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" ht="34">
-      <c r="B80" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" ht="34">
-      <c r="B81" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" ht="34">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>138</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="J82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K82" s="5">
-        <v>500</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="34">
-      <c r="A83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="J83" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" ht="34">
-      <c r="B84" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" ht="17">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H85" s="4">
-        <v>0</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K85" s="5">
-        <v>0</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:12" ht="17">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" ht="34">
+      <c r="J86" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K86" s="5">
+        <v>500</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="17">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
@@ -3133,43 +3217,37 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="J88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K88" s="5">
-        <v>500</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" ht="17">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2"/>
       <c r="J89" s="5"/>
@@ -3181,16 +3259,16 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2"/>
       <c r="J90" s="5"/>
@@ -3202,491 +3280,505 @@
         <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="J91" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" ht="17">
-      <c r="A92" t="s">
-        <v>19</v>
-      </c>
+    <row r="92" spans="1:12" ht="34">
       <c r="B92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="17">
       <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" ht="17">
+      <c r="A94" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="J93" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" ht="34">
       <c r="B94" s="3" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="17">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
+    <row r="95" spans="1:12" ht="34">
       <c r="B95" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="17">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2"/>
+      <c r="J96" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K96" s="5">
+        <v>500</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="97" spans="1:12" ht="34">
       <c r="B97" s="3" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" ht="34">
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" ht="17">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="J98" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K98" s="5">
-        <v>500</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" ht="34">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
       <c r="B99" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="C99" t="s">
+        <v>67</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="J99" s="5"/>
+      <c r="J99" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="17">
-      <c r="A100" t="s">
-        <v>19</v>
-      </c>
       <c r="B100" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" ht="34">
+    </row>
+    <row r="101" spans="1:12" ht="17">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="J101" s="5" t="s">
+    </row>
+    <row r="102" spans="1:12" ht="17">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
         <v>125</v>
-      </c>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" ht="34">
-      <c r="B102" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>190</v>
       </c>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="17">
       <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" ht="34">
+      <c r="B104" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" ht="34">
+      <c r="A105" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>190</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" ht="17">
-      <c r="A104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>190</v>
-      </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" ht="17">
-      <c r="A105" t="s">
-        <v>19</v>
-      </c>
       <c r="B105" s="3" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" ht="34">
+      <c r="G105" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K105" s="5">
+        <v>0</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="17">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
       <c r="B106" s="3" t="s">
-        <v>168</v>
+        <v>51</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" ht="34">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:12" ht="17">
       <c r="B107" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H107" s="4">
-        <v>0</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K107" s="5">
-        <v>0</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="17">
-      <c r="A108" t="s">
+        <v>80</v>
+      </c>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:12" ht="34">
+      <c r="B108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" ht="34">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" ht="34">
+      <c r="A110" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" ht="17">
-      <c r="B109" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
-        <v>190</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" ht="34">
       <c r="B110" s="3" t="s">
-        <v>173</v>
+        <v>138</v>
+      </c>
+      <c r="C110" t="s">
+        <v>62</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" ht="34">
+      <c r="J110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K110" s="5">
+        <v>500</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="17">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" ht="34">
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" ht="17">
       <c r="A112" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2"/>
       <c r="J112" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K112" s="5">
-        <v>500</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="17">
-      <c r="A113" t="s">
+        <v>80</v>
+      </c>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="1:14" ht="17">
+      <c r="B113" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:14" ht="17">
+      <c r="A114" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" t="s">
-        <v>123</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" ht="17">
-      <c r="A114" t="s">
-        <v>13</v>
-      </c>
       <c r="B114" s="3" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="J114" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" ht="17">
+      <c r="G114" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H114" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="17">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
       <c r="B115" s="3" t="s">
-        <v>175</v>
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" ht="17">
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" spans="1:14" ht="17">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -3695,115 +3787,65 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H116" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="17">
-      <c r="A117" t="s">
-        <v>12</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="17">
       <c r="B117" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
       </c>
       <c r="E117" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:14" ht="17">
+      <c r="A118" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:14" ht="17">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:14" ht="17">
+      <c r="A120" s="7"/>
+      <c r="B120" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:12" ht="17">
-      <c r="A118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:12" ht="17">
-      <c r="B119" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E119" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" ht="17">
-      <c r="A120" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E120" t="s">
-        <v>123</v>
-      </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="17">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E121" t="s">
-        <v>123</v>
-      </c>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:12" ht="17">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E122" t="s">
-        <v>123</v>
-      </c>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="227" spans="2:2" s="6" customFormat="1">
-      <c r="B227" s="9"/>
+    <row r="225" spans="2:2" s="6" customFormat="1">
+      <c r="B225" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090AF445-FDF1-414E-BBA0-7F44FA08B909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E308235-3588-CE4F-BD9E-8D46D310388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="194">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This Qingliu Manor is said to have been built in the early Sui Dynasty, making it over a hundred years old with a long and rich history.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Let’s knock first and see.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We are journeying from Luoyang and stopped here to enjoy the scenery of the JiuJiang River.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We are travelers passing through. I am Judge Dee.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To think we could enjoy the rare Wuyi Oolong tea in these mountains!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>You flatter us, Sir. It’s merely modest tea, nothing special.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,22 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>It’s probably around</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Shen hour (3 PM) now.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>History2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,6 +782,26 @@
   <si>
     <t>History5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This manor looks quite old!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steeped in over a century of rich tradition and heritage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly! This Qingliu Manor is said to have been built in the early &lt;color=#FFCC000&gt;Sui Dynasty&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>We are journeying from &lt;color=#FFCC000&gt;Luoyang&lt;/color&gt; and stopped here to enjoy the scenery of the JiuJiang River.</t>
+  </si>
+  <si>
+    <t>To think we could enjoy the rare &lt;color=#FFCC000&gt;Wuyi Oolong tea &lt;/color&gt;in these mountains!</t>
+  </si>
+  <si>
+    <t>It’s probably around &lt;color=#FFCC000&gt;Shen hour (3 PM)&lt;/color&gt; now.</t>
   </si>
 </sst>
 </file>
@@ -896,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,9 +923,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF14D6-CAD6-5C44-AFA5-A105C1944E5C}">
-  <dimension ref="A1:P225"/>
+  <dimension ref="A1:P227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1329,16 +1318,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1">
@@ -1346,371 +1335,378 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="34">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" ht="34">
+        <v>82</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="34">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17">
+        <v>79</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="34">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="34">
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="17">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="17">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="34">
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="17">
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="17">
-      <c r="A12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="17">
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="17">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="17">
-      <c r="A13" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="17">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="51">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" ht="17">
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" ht="34">
+        <v>82</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="51">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="17">
+      <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="34">
+      <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="5">
+        <v>500</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="34">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="J16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="5">
-        <v>500</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="34">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="17">
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="17">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
       </c>
       <c r="F19" s="2"/>
       <c r="J19" s="5"/>
@@ -1718,307 +1714,319 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:14" ht="17">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="34">
+    <row r="21" spans="1:14" ht="17">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="22" spans="1:14" ht="17">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="2"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="17">
+    </row>
+    <row r="23" spans="1:14" ht="34">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="17">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="J24" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="34">
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="17">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="34">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="17">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="17">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
+      <c r="J26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34">
       <c r="B27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="28" spans="1:14" ht="34">
       <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="17">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="34">
+      <c r="J29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="34">
+    <row r="31" spans="1:14" ht="17">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="17">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" ht="34">
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2"/>
+      <c r="G32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="34">
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2029,210 +2037,192 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="17">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="17">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="37" spans="1:12" ht="34">
       <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="17">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" ht="34">
+        <v>82</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="34">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="17">
       <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="34">
+      <c r="B41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="34">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="J42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" s="5">
+        <v>500</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="J40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="5">
-        <v>500</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="34">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" ht="17">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" ht="17">
+    </row>
+    <row r="43" spans="1:12" ht="34">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="34">
+    <row r="44" spans="1:12" ht="17">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F44" s="2"/>
       <c r="J44" s="5"/>
@@ -2244,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
@@ -2253,403 +2243,391 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="J45" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="34">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="2"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="17">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="J47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="17">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="34">
       <c r="B48" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:14" ht="17">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" ht="34">
+      <c r="G49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
       <c r="B50" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F50" s="2"/>
+      <c r="G50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:14" ht="17">
       <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="34">
+      <c r="B52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="17">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
         <v>17</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="4">
         <v>0</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="J53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53" s="5">
         <v>0</v>
       </c>
-      <c r="L51" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="17">
-      <c r="A52" t="s">
+      <c r="L53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17">
+      <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" ht="34">
-      <c r="B53" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" ht="34">
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2"/>
+      <c r="G54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="34">
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:14" ht="17">
-      <c r="A56" t="s">
-        <v>117</v>
-      </c>
+    <row r="56" spans="1:14" ht="34">
       <c r="B56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="J56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K56" s="5">
-        <v>500</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="17">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="57" spans="1:14" ht="34">
       <c r="B57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:14" ht="17">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2"/>
       <c r="J58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="K58" s="5">
+        <v>500</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="17">
       <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>165</v>
+        <v>20</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:14" ht="17">
       <c r="A60" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-    </row>
-    <row r="61" spans="1:14" ht="17">
+    </row>
+    <row r="61" spans="1:14" ht="34">
       <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="11"/>
+      <c r="G61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="N61" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2658,24 +2636,24 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="1:14" ht="17">
       <c r="A63" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4"/>
@@ -2684,22 +2662,26 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:14" ht="34">
+      <c r="M63" s="11"/>
+      <c r="N63" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4"/>
@@ -2714,16 +2696,16 @@
         <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="4"/>
@@ -2733,163 +2715,163 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="17">
+    <row r="66" spans="1:12" ht="34">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="17">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="J67" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K67" s="5">
-        <v>500</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="34">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="17">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
       <c r="B68" s="3" t="s">
-        <v>172</v>
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="J68" s="5"/>
+      <c r="G68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="34">
+    <row r="69" spans="1:12" ht="17">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
       <c r="B69" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="J69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69" s="5">
+        <v>500</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="34">
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="17">
+    <row r="71" spans="1:12" ht="34">
       <c r="B71" s="3" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" s="2"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="17">
-      <c r="A72" t="s">
-        <v>20</v>
-      </c>
+    <row r="72" spans="1:12" ht="34">
       <c r="B72" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="J72" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K72" s="5">
-        <v>500</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" ht="17">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
       <c r="B73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2"/>
       <c r="J73" s="5"/>
@@ -2901,7 +2883,7 @@
         <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
         <v>70</v>
@@ -2910,305 +2892,305 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F74" s="2"/>
       <c r="J74" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="K74" s="5">
+        <v>500</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="17">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H75" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="17">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="J76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="17">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" ht="34">
+        <v>82</v>
+      </c>
+      <c r="H77" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
       <c r="B78" s="3" t="s">
-        <v>142</v>
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" ht="34">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" ht="17">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
       <c r="B79" s="3" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2"/>
+      <c r="G79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="34">
-      <c r="A80" t="s">
+      <c r="B80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="34">
+      <c r="B81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" ht="34">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="J82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K82" s="5">
+        <v>500</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="34">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" s="2"/>
-      <c r="J80" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K80" s="5">
-        <v>500</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="34">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="J81" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" ht="34">
-      <c r="B82" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" ht="17">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="J83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K83" s="5">
-        <v>0</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="17">
-      <c r="A84" t="s">
-        <v>12</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" ht="34">
       <c r="B84" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" ht="17">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J85" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="17">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="J86" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K86" s="5">
-        <v>500</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" ht="17">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="J87" s="5"/>
+      <c r="G87" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
@@ -3217,37 +3199,43 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="J88" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K88" s="5">
+        <v>500</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="17">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2"/>
       <c r="J89" s="5"/>
@@ -3259,16 +3247,16 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2"/>
       <c r="J90" s="5"/>
@@ -3280,63 +3268,69 @@
         <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="J91" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" ht="34">
+    <row r="92" spans="1:12" ht="17">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
       <c r="B92" s="3" t="s">
-        <v>176</v>
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="17">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" ht="17">
-      <c r="A94" t="s">
-        <v>13</v>
-      </c>
+      <c r="J93" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" ht="34">
       <c r="B94" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -3346,9 +3340,15 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="34">
+    <row r="95" spans="1:12" ht="17">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
       <c r="B95" s="3" t="s">
-        <v>107</v>
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -3360,425 +3360,399 @@
     </row>
     <row r="96" spans="1:12" ht="17">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="J96" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K96" s="5">
-        <v>500</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="97" spans="1:12" ht="34">
       <c r="B97" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12" ht="17">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="J98" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K98" s="5">
+        <v>500</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="99" spans="1:12" ht="34">
-      <c r="A99" t="s">
-        <v>19</v>
-      </c>
       <c r="B99" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="J99" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="17">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
       <c r="B100" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
+        <v>67</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" ht="17">
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" ht="34">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2"/>
+      <c r="J101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12" ht="17">
-      <c r="A102" t="s">
-        <v>12</v>
-      </c>
       <c r="B102" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="17">
       <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" ht="17">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" ht="17">
+      <c r="A105" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" ht="34">
-      <c r="B104" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>125</v>
-      </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" ht="34">
-      <c r="A105" t="s">
+      <c r="B105" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" ht="34">
+      <c r="B106" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" ht="34">
+      <c r="A107" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C105" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K105" s="5">
-        <v>0</v>
-      </c>
-      <c r="L105" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="17">
-      <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" t="s">
-        <v>125</v>
-      </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" ht="17">
       <c r="B107" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="J107" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" ht="34">
+        <v>82</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
       <c r="B108" s="3" t="s">
-        <v>111</v>
+        <v>50</v>
+      </c>
+      <c r="C108" t="s">
+        <v>58</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" ht="34">
-      <c r="A109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" ht="17">
       <c r="B109" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2"/>
+      <c r="G109" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
     </row>
     <row r="110" spans="1:12" ht="34">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
       <c r="B110" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F110" s="2"/>
-      <c r="J110" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K110" s="5">
-        <v>500</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="17">
+    </row>
+    <row r="111" spans="1:12" ht="34">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" ht="17">
+    </row>
+    <row r="112" spans="1:12" ht="34">
       <c r="A112" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2"/>
       <c r="J112" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="K112" s="5">
+        <v>500</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="113" spans="1:14" ht="17">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
       <c r="B113" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
+      </c>
+      <c r="C113" t="s">
+        <v>55</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F113" s="2"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
     </row>
     <row r="114" spans="1:14" ht="17">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H114" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M114" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N114" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="J114" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:14" ht="17">
-      <c r="A115" t="s">
-        <v>12</v>
-      </c>
       <c r="B115" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
     </row>
     <row r="116" spans="1:14" ht="17">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -3787,65 +3761,121 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H116" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="17">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>77</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" spans="1:14" ht="17">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>77</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="17">
+      <c r="B119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>77</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:14" ht="17">
+      <c r="A120" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:14" ht="17">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="17">
-      <c r="B117" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:14" ht="17">
-      <c r="A118" s="7" t="s">
+      <c r="C121" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:14" ht="17">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:14" ht="17">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:14" ht="17">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="225" spans="2:2" s="6" customFormat="1">
-      <c r="B225" s="9"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="227" spans="2:2" s="6" customFormat="1">
+      <c r="B227" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/StoryScript2.xlsx
+++ b/Assets/StreamingAssets/StoryScript2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E308235-3588-CE4F-BD9E-8D46D310388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B51C4-91E6-534A-B5E2-5DF74373B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1250C88F-E2AC-B545-B8EA-2934217A2D25}"/>
   </bookViews>
@@ -792,16 +792,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exactly! This Qingliu Manor is said to have been built in the early &lt;color=#FFCC000&gt;Sui Dynasty&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>We are journeying from &lt;color=#FFCC000&gt;Luoyang&lt;/color&gt; and stopped here to enjoy the scenery of the JiuJiang River.</t>
-  </si>
-  <si>
-    <t>To think we could enjoy the rare &lt;color=#FFCC000&gt;Wuyi Oolong tea &lt;/color&gt;in these mountains!</t>
-  </si>
-  <si>
-    <t>It’s probably around &lt;color=#FFCC000&gt;Shen hour (3 PM)&lt;/color&gt; now.</t>
+    <t>Exactly! This Qingliu Manor is said to have been built in the early &lt;color=#FFCC00&gt;Sui Dynasty&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are journeying from &lt;color=#FFCC00&gt;Luoyang&lt;/color&gt; and stopped here to enjoy the scenery of the JiuJiang River.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To think we could enjoy the rare &lt;color=#FFCC00&gt;Wuyi Oolong tea &lt;/color&gt;in these mountains!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s probably around &lt;color=#FFCC00&gt;Shen hour (3 PM)&lt;/color&gt; now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
